--- a/data/scheduling_DNN/predict/0.1/result3.xlsx
+++ b/data/scheduling_DNN/predict/0.1/result3.xlsx
@@ -570,10 +570,10 @@
         <v>5.945752859115601</v>
       </c>
       <c r="V2" t="n">
-        <v>0.6584680080413818</v>
+        <v>0.4683464765548706</v>
       </c>
       <c r="W2" t="n">
-        <v>27.95538139343262</v>
+        <v>30.00198173522949</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -641,10 +641,10 @@
         <v>1.402323007583618</v>
       </c>
       <c r="V3" t="n">
-        <v>0.6237491369247437</v>
+        <v>0.5107079744338989</v>
       </c>
       <c r="W3" t="n">
-        <v>0.6061772704124451</v>
+        <v>0.7949773669242859</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -712,10 +712,10 @@
         <v>1.044303178787231</v>
       </c>
       <c r="V4" t="n">
-        <v>0.5682737827301025</v>
+        <v>0.9358440041542053</v>
       </c>
       <c r="W4" t="n">
-        <v>0.2266039848327637</v>
+        <v>0.01176339294761419</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -783,10 +783,10 @@
         <v>0.8884220123291016</v>
       </c>
       <c r="V5" t="n">
-        <v>0.4360189139842987</v>
+        <v>0.8840857148170471</v>
       </c>
       <c r="W5" t="n">
-        <v>0.2046685665845871</v>
+        <v>1.880347554106265e-05</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -854,10 +854,10 @@
         <v>0.8816509246826172</v>
       </c>
       <c r="V6" t="n">
-        <v>0.4558286666870117</v>
+        <v>0.4721077084541321</v>
       </c>
       <c r="W6" t="n">
-        <v>0.1813246011734009</v>
+        <v>0.1677256524562836</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -925,10 +925,10 @@
         <v>0.8709239959716797</v>
       </c>
       <c r="V7" t="n">
-        <v>0.3901001513004303</v>
+        <v>0.9314329624176025</v>
       </c>
       <c r="W7" t="n">
-        <v>0.2311915755271912</v>
+        <v>0.003661334980279207</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -996,10 +996,10 @@
         <v>0.8700020313262939</v>
       </c>
       <c r="V8" t="n">
-        <v>0.5235501527786255</v>
+        <v>0.5516213774681091</v>
       </c>
       <c r="W8" t="n">
-        <v>0.120028905570507</v>
+        <v>0.1013662442564964</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1067,10 +1067,10 @@
         <v>0.9313690662384033</v>
       </c>
       <c r="V9" t="n">
-        <v>0.6585533618927002</v>
+        <v>0.4692507386207581</v>
       </c>
       <c r="W9" t="n">
-        <v>0.07442840933799744</v>
+        <v>0.2135533541440964</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1138,10 +1138,10 @@
         <v>0.8938760757446289</v>
       </c>
       <c r="V10" t="n">
-        <v>0.6568613052368164</v>
+        <v>0.4927932024002075</v>
       </c>
       <c r="W10" t="n">
-        <v>0.05617600306868553</v>
+        <v>0.1608674675226212</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1209,10 +1209,10 @@
         <v>0.9247000217437744</v>
       </c>
       <c r="V11" t="n">
-        <v>0.8187797069549561</v>
+        <v>0.9642366170883179</v>
       </c>
       <c r="W11" t="n">
-        <v>0.01121911313384771</v>
+        <v>0.001563142403028905</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1280,10 +1280,10 @@
         <v>0.8699769973754883</v>
       </c>
       <c r="V12" t="n">
-        <v>0.4739275276660919</v>
+        <v>0.5478693842887878</v>
       </c>
       <c r="W12" t="n">
-        <v>0.1568551808595657</v>
+        <v>0.1037533134222031</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1351,10 +1351,10 @@
         <v>0.8918051719665527</v>
       </c>
       <c r="V13" t="n">
-        <v>0.5041597485542297</v>
+        <v>0.9500643610954285</v>
       </c>
       <c r="W13" t="n">
-        <v>0.1502689719200134</v>
+        <v>0.003394133178517222</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1422,10 +1422,10 @@
         <v>0.8858809471130371</v>
       </c>
       <c r="V14" t="n">
-        <v>0.4663760364055634</v>
+        <v>0.9400033354759216</v>
       </c>
       <c r="W14" t="n">
-        <v>0.1759843677282333</v>
+        <v>0.002929233014583588</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1493,10 +1493,10 @@
         <v>0.9551160335540771</v>
       </c>
       <c r="V15" t="n">
-        <v>0.4550628066062927</v>
+        <v>0.4846275448799133</v>
       </c>
       <c r="W15" t="n">
-        <v>0.2500532269477844</v>
+        <v>0.2213594168424606</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1564,10 +1564,10 @@
         <v>0.8975329399108887</v>
       </c>
       <c r="V16" t="n">
-        <v>0.5017416477203369</v>
+        <v>0.482447624206543</v>
       </c>
       <c r="W16" t="n">
-        <v>0.1566507518291473</v>
+        <v>0.1722958236932755</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1635,10 +1635,10 @@
         <v>0.8900690078735352</v>
       </c>
       <c r="V17" t="n">
-        <v>0.4543018043041229</v>
+        <v>0.9541278481483459</v>
       </c>
       <c r="W17" t="n">
-        <v>0.189893051981926</v>
+        <v>0.004103534854948521</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1706,10 +1706,10 @@
         <v>0.9937880039215088</v>
       </c>
       <c r="V18" t="n">
-        <v>0.6213141679763794</v>
+        <v>0.4943132996559143</v>
       </c>
       <c r="W18" t="n">
-        <v>0.138736754655838</v>
+        <v>0.2494749873876572</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1777,10 +1777,10 @@
         <v>1.051740884780884</v>
       </c>
       <c r="V19" t="n">
-        <v>0.4741716682910919</v>
+        <v>0.4931733012199402</v>
       </c>
       <c r="W19" t="n">
-        <v>0.3335862457752228</v>
+        <v>0.3119977414608002</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1848,10 +1848,10 @@
         <v>0.9284350872039795</v>
       </c>
       <c r="V20" t="n">
-        <v>0.6209926605224609</v>
+        <v>0.892923891544342</v>
       </c>
       <c r="W20" t="n">
-        <v>0.09452084451913834</v>
+        <v>0.001261044992133975</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1919,10 +1919,10 @@
         <v>0.9283149242401123</v>
       </c>
       <c r="V21" t="n">
-        <v>0.4576936960220337</v>
+        <v>0.4771278500556946</v>
       </c>
       <c r="W21" t="n">
-        <v>0.2214843332767487</v>
+        <v>0.203569769859314</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -1990,10 +1990,10 @@
         <v>0.6615488529205322</v>
       </c>
       <c r="V22" t="n">
-        <v>0.6196457147598267</v>
+        <v>0.488070547580719</v>
       </c>
       <c r="W22" t="n">
-        <v>0.001755872974172235</v>
+        <v>0.03009472228586674</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2061,10 +2061,10 @@
         <v>0.6288402080535889</v>
       </c>
       <c r="V23" t="n">
-        <v>0.618610143661499</v>
+        <v>0.5241047739982605</v>
       </c>
       <c r="W23" t="n">
-        <v>0.0001046542165568098</v>
+        <v>0.01096951123327017</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2132,10 +2132,10 @@
         <v>0.5791630744934082</v>
       </c>
       <c r="V24" t="n">
-        <v>0.4575503170490265</v>
+        <v>0.4775165915489197</v>
       </c>
       <c r="W24" t="n">
-        <v>0.01478966232389212</v>
+        <v>0.01033200789242983</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2203,10 +2203,10 @@
         <v>0.6175270080566406</v>
       </c>
       <c r="V25" t="n">
-        <v>0.6255502700805664</v>
+        <v>0.4771949052810669</v>
       </c>
       <c r="W25" t="n">
-        <v>6.437273259507492e-05</v>
+        <v>0.01969309896230698</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2274,10 +2274,10 @@
         <v>0.6697568893432617</v>
       </c>
       <c r="V26" t="n">
-        <v>0.4955423474311829</v>
+        <v>0.4794177412986755</v>
       </c>
       <c r="W26" t="n">
-        <v>0.0303507074713707</v>
+        <v>0.03622899204492569</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2345,10 +2345,10 @@
         <v>0.7846379280090332</v>
       </c>
       <c r="V27" t="n">
-        <v>0.6243352890014648</v>
+        <v>0.557834804058075</v>
       </c>
       <c r="W27" t="n">
-        <v>0.02569693699479103</v>
+        <v>0.05143965780735016</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2416,10 +2416,10 @@
         <v>0.5448260307312012</v>
       </c>
       <c r="V28" t="n">
-        <v>0.4552138149738312</v>
+        <v>0.8763516545295715</v>
       </c>
       <c r="W28" t="n">
-        <v>0.008030349388718605</v>
+        <v>0.1099092364311218</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2487,10 +2487,10 @@
         <v>0.8724358081817627</v>
       </c>
       <c r="V29" t="n">
-        <v>0.4362451732158661</v>
+        <v>0.4822788834571838</v>
       </c>
       <c r="W29" t="n">
-        <v>0.1902622729539871</v>
+        <v>0.1522224247455597</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2558,10 +2558,10 @@
         <v>0.5420491695404053</v>
       </c>
       <c r="V30" t="n">
-        <v>0.6437778472900391</v>
+        <v>0.5130558013916016</v>
       </c>
       <c r="W30" t="n">
-        <v>0.0103487242013216</v>
+        <v>0.0008406154229305685</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2629,10 +2629,10 @@
         <v>0.51739501953125</v>
       </c>
       <c r="V31" t="n">
-        <v>0.6608701944351196</v>
+        <v>0.9883431792259216</v>
       </c>
       <c r="W31" t="n">
-        <v>0.02058512531220913</v>
+        <v>0.2217921763658524</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2700,10 +2700,10 @@
         <v>0.5705170631408691</v>
       </c>
       <c r="V32" t="n">
-        <v>0.630542516708374</v>
+        <v>0.4675312638282776</v>
       </c>
       <c r="W32" t="n">
-        <v>0.003603055141866207</v>
+        <v>0.01060607470571995</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2771,10 +2771,10 @@
         <v>0.5192909240722656</v>
       </c>
       <c r="V33" t="n">
-        <v>0.5013586282730103</v>
+        <v>0.4910987615585327</v>
       </c>
       <c r="W33" t="n">
-        <v>0.0003215672331862152</v>
+        <v>0.0007947980193421245</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2842,10 +2842,10 @@
         <v>0.5214078426361084</v>
       </c>
       <c r="V34" t="n">
-        <v>0.4356837570667267</v>
+        <v>0.9476699829101562</v>
       </c>
       <c r="W34" t="n">
-        <v>0.007348618935793638</v>
+        <v>0.1816994100809097</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2913,10 +2913,10 @@
         <v>0.5223710536956787</v>
       </c>
       <c r="V35" t="n">
-        <v>0.3793536722660065</v>
+        <v>0.4731380939483643</v>
       </c>
       <c r="W35" t="n">
-        <v>0.02045397087931633</v>
+        <v>0.002423884347081184</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -2984,10 +2984,10 @@
         <v>0.5205719470977783</v>
       </c>
       <c r="V36" t="n">
-        <v>0.6238876581192017</v>
+        <v>0.4692498445510864</v>
       </c>
       <c r="W36" t="n">
-        <v>0.01067413575947285</v>
+        <v>0.002633958123624325</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3055,10 +3055,10 @@
         <v>0.581143856048584</v>
       </c>
       <c r="V37" t="n">
-        <v>0.4575155675411224</v>
+        <v>0.4673855304718018</v>
       </c>
       <c r="W37" t="n">
-        <v>0.01528395339846611</v>
+        <v>0.01294095627963543</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3126,10 +3126,10 @@
         <v>0.5180249214172363</v>
       </c>
       <c r="V38" t="n">
-        <v>0.5712623596191406</v>
+        <v>0.9399277567863464</v>
       </c>
       <c r="W38" t="n">
-        <v>0.002834224840626121</v>
+        <v>0.1780019998550415</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3197,10 +3197,10 @@
         <v>0.5188732147216797</v>
       </c>
       <c r="V39" t="n">
-        <v>0.5687457323074341</v>
+        <v>0.9395794272422791</v>
       </c>
       <c r="W39" t="n">
-        <v>0.002487268066033721</v>
+        <v>0.1769937127828598</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3268,10 +3268,10 @@
         <v>0.5202867984771729</v>
       </c>
       <c r="V40" t="n">
-        <v>0.4713866114616394</v>
+        <v>0.4771321415901184</v>
       </c>
       <c r="W40" t="n">
-        <v>0.002391228219494224</v>
+        <v>0.001862324425019324</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3339,10 +3339,10 @@
         <v>0.5192568302154541</v>
       </c>
       <c r="V41" t="n">
-        <v>0.4729442894458771</v>
+        <v>0.4774851202964783</v>
       </c>
       <c r="W41" t="n">
-        <v>0.002144851488992572</v>
+        <v>0.001744875800795853</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -3410,10 +3410,10 @@
         <v>0.4030828475952148</v>
       </c>
       <c r="V42" t="n">
-        <v>0.5010216236114502</v>
+        <v>0.9055951833724976</v>
       </c>
       <c r="W42" t="n">
-        <v>0.009592004120349884</v>
+        <v>0.2525186538696289</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -3481,10 +3481,10 @@
         <v>0.4053199291229248</v>
       </c>
       <c r="V43" t="n">
-        <v>0.6168749332427979</v>
+        <v>0.5236063599586487</v>
       </c>
       <c r="W43" t="n">
-        <v>0.04475551843643188</v>
+        <v>0.01399167999625206</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -3552,10 +3552,10 @@
         <v>0.3893141746520996</v>
       </c>
       <c r="V44" t="n">
-        <v>0.4643741250038147</v>
+        <v>0.4811144471168518</v>
       </c>
       <c r="W44" t="n">
-        <v>0.005633996333926916</v>
+        <v>0.008427290245890617</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -3623,10 +3623,10 @@
         <v>0.3921270370483398</v>
       </c>
       <c r="V45" t="n">
-        <v>0.4746897518634796</v>
+        <v>0.4777722954750061</v>
       </c>
       <c r="W45" t="n">
-        <v>0.006816601846367121</v>
+        <v>0.007335110101848841</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -3694,10 +3694,10 @@
         <v>0.3887588977813721</v>
       </c>
       <c r="V46" t="n">
-        <v>0.6731165647506714</v>
+        <v>0.8818556666374207</v>
       </c>
       <c r="W46" t="n">
-        <v>0.08085928112268448</v>
+        <v>0.2431444227695465</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -3765,10 +3765,10 @@
         <v>0.3987650871276855</v>
       </c>
       <c r="V47" t="n">
-        <v>0.5160707235336304</v>
+        <v>0.531334400177002</v>
       </c>
       <c r="W47" t="n">
-        <v>0.01376061234623194</v>
+        <v>0.01757462322711945</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -3836,10 +3836,10 @@
         <v>0.3914570808410645</v>
       </c>
       <c r="V48" t="n">
-        <v>0.3906354904174805</v>
+        <v>0.5315500497817993</v>
       </c>
       <c r="W48" t="n">
-        <v>6.750108241249109e-07</v>
+        <v>0.01962604001164436</v>
       </c>
     </row>
     <row r="49" spans="1:23">
@@ -3907,10 +3907,10 @@
         <v>0.3957479000091553</v>
       </c>
       <c r="V49" t="n">
-        <v>0.6046534776687622</v>
+        <v>0.4693655967712402</v>
       </c>
       <c r="W49" t="n">
-        <v>0.04364154115319252</v>
+        <v>0.005419565364718437</v>
       </c>
     </row>
     <row r="50" spans="1:23">
@@ -3978,10 +3978,10 @@
         <v>0.392003059387207</v>
       </c>
       <c r="V50" t="n">
-        <v>0.4641267657279968</v>
+        <v>0.4987286925315857</v>
       </c>
       <c r="W50" t="n">
-        <v>0.005201829131692648</v>
+        <v>0.01139036100357771</v>
       </c>
     </row>
     <row r="51" spans="1:23">
@@ -4049,10 +4049,10 @@
         <v>0.3899300098419189</v>
       </c>
       <c r="V51" t="n">
-        <v>0.812067985534668</v>
+        <v>0.9048303365707397</v>
       </c>
       <c r="W51" t="n">
-        <v>0.1782004684209824</v>
+        <v>0.2651223540306091</v>
       </c>
     </row>
     <row r="52" spans="1:23">
@@ -4120,10 +4120,10 @@
         <v>0.389854907989502</v>
       </c>
       <c r="V52" t="n">
-        <v>0.7471864223480225</v>
+        <v>0.4922356605529785</v>
       </c>
       <c r="W52" t="n">
-        <v>0.1276858150959015</v>
+        <v>0.01048181857913733</v>
       </c>
     </row>
     <row r="53" spans="1:23">
@@ -4191,10 +4191,10 @@
         <v>0.4424958229064941</v>
       </c>
       <c r="V53" t="n">
-        <v>0.471180647611618</v>
+        <v>0.5130840539932251</v>
       </c>
       <c r="W53" t="n">
-        <v>0.0008228191873058677</v>
+        <v>0.004982698243111372</v>
       </c>
     </row>
     <row r="54" spans="1:23">
@@ -4262,10 +4262,10 @@
         <v>0.3881909847259521</v>
       </c>
       <c r="V54" t="n">
-        <v>0.4420330226421356</v>
+        <v>0.4783788919448853</v>
       </c>
       <c r="W54" t="n">
-        <v>0.002898965030908585</v>
+        <v>0.008133858442306519</v>
       </c>
     </row>
     <row r="55" spans="1:23">
@@ -4333,10 +4333,10 @@
         <v>0.4339370727539062</v>
       </c>
       <c r="V55" t="n">
-        <v>0.4584724307060242</v>
+        <v>0.5315327644348145</v>
       </c>
       <c r="W55" t="n">
-        <v>0.0006019838037900627</v>
+        <v>0.009524919092655182</v>
       </c>
     </row>
     <row r="56" spans="1:23">
@@ -4404,10 +4404,10 @@
         <v>0.3880438804626465</v>
       </c>
       <c r="V56" t="n">
-        <v>0.5506994724273682</v>
+        <v>0.5339637994766235</v>
       </c>
       <c r="W56" t="n">
-        <v>0.02645684219896793</v>
+        <v>0.02129262313246727</v>
       </c>
     </row>
     <row r="57" spans="1:23">
@@ -4475,10 +4475,10 @@
         <v>0.3987340927124023</v>
       </c>
       <c r="V57" t="n">
-        <v>0.3785330653190613</v>
+        <v>0.4684016108512878</v>
       </c>
       <c r="W57" t="n">
-        <v>0.0004080815124325454</v>
+        <v>0.004853562917560339</v>
       </c>
     </row>
     <row r="58" spans="1:23">
@@ -4546,10 +4546,10 @@
         <v>0.3908939361572266</v>
       </c>
       <c r="V58" t="n">
-        <v>0.6009038686752319</v>
+        <v>0.5337479114532471</v>
       </c>
       <c r="W58" t="n">
-        <v>0.04410417005419731</v>
+        <v>0.02040725760161877</v>
       </c>
     </row>
     <row r="59" spans="1:23">
@@ -4617,10 +4617,10 @@
         <v>0.3904039859771729</v>
       </c>
       <c r="V59" t="n">
-        <v>0.5761919021606445</v>
+        <v>0.9564361572265625</v>
       </c>
       <c r="W59" t="n">
-        <v>0.03451715037226677</v>
+        <v>0.3203924298286438</v>
       </c>
     </row>
     <row r="60" spans="1:23">
@@ -4688,10 +4688,10 @@
         <v>0.3897550106048584</v>
       </c>
       <c r="V60" t="n">
-        <v>0.6437071561813354</v>
+        <v>0.5172789096832275</v>
       </c>
       <c r="W60" t="n">
-        <v>0.06449168920516968</v>
+        <v>0.01626234501600266</v>
       </c>
     </row>
     <row r="61" spans="1:23">
@@ -4759,10 +4759,10 @@
         <v>0.4395840167999268</v>
       </c>
       <c r="V61" t="n">
-        <v>0.4707594513893127</v>
+        <v>0.5518237352371216</v>
       </c>
       <c r="W61" t="n">
-        <v>0.0009719077497720718</v>
+        <v>0.01259775459766388</v>
       </c>
     </row>
     <row r="62" spans="1:23">
@@ -4830,10 +4830,10 @@
         <v>1.023046016693115</v>
       </c>
       <c r="V62" t="n">
-        <v>0.5017784237861633</v>
+        <v>0.8926070928573608</v>
       </c>
       <c r="W62" t="n">
-        <v>0.27171990275383</v>
+        <v>0.01701431348919868</v>
       </c>
     </row>
     <row r="63" spans="1:23">
@@ -4901,10 +4901,10 @@
         <v>0.8680520057678223</v>
       </c>
       <c r="V63" t="n">
-        <v>0.8187210559844971</v>
+        <v>0.4680274128913879</v>
       </c>
       <c r="W63" t="n">
-        <v>0.002433542627841234</v>
+        <v>0.1600196808576584</v>
       </c>
     </row>
     <row r="64" spans="1:23">
@@ -4972,10 +4972,10 @@
         <v>0.8683090209960938</v>
       </c>
       <c r="V64" t="n">
-        <v>0.3788739442825317</v>
+        <v>0.5326765775680542</v>
       </c>
       <c r="W64" t="n">
-        <v>0.2395467013120651</v>
+        <v>0.1126491352915764</v>
       </c>
     </row>
     <row r="65" spans="1:23">
@@ -5043,10 +5043,10 @@
         <v>0.9259071350097656</v>
       </c>
       <c r="V65" t="n">
-        <v>0.3783778548240662</v>
+        <v>0.949657142162323</v>
       </c>
       <c r="W65" t="n">
-        <v>0.2997883260250092</v>
+        <v>0.0005640628514811397</v>
       </c>
     </row>
     <row r="66" spans="1:23">
@@ -5114,10 +5114,10 @@
         <v>0.8776111602783203</v>
       </c>
       <c r="V66" t="n">
-        <v>0.4487207531929016</v>
+        <v>0.5022054314613342</v>
       </c>
       <c r="W66" t="n">
-        <v>0.1839469820261002</v>
+        <v>0.1409294605255127</v>
       </c>
     </row>
     <row r="67" spans="1:23">
@@ -5185,10 +5185,10 @@
         <v>0.8686521053314209</v>
       </c>
       <c r="V67" t="n">
-        <v>0.4707243740558624</v>
+        <v>0.5063413381576538</v>
       </c>
       <c r="W67" t="n">
-        <v>0.1583464741706848</v>
+        <v>0.131269097328186</v>
       </c>
     </row>
     <row r="68" spans="1:23">
@@ -5256,10 +5256,10 @@
         <v>0.8771340847015381</v>
       </c>
       <c r="V68" t="n">
-        <v>0.6245588064193726</v>
+        <v>0.5515968203544617</v>
       </c>
       <c r="W68" t="n">
-        <v>0.06379427015781403</v>
+        <v>0.1059745103120804</v>
       </c>
     </row>
     <row r="69" spans="1:23">
@@ -5327,10 +5327,10 @@
         <v>0.9272270202636719</v>
       </c>
       <c r="V69" t="n">
-        <v>0.4986482858657837</v>
+        <v>0.8688732385635376</v>
       </c>
       <c r="W69" t="n">
-        <v>0.1836797297000885</v>
+        <v>0.003405163763090968</v>
       </c>
     </row>
     <row r="70" spans="1:23">
@@ -5398,10 +5398,10 @@
         <v>0.868394136428833</v>
       </c>
       <c r="V70" t="n">
-        <v>0.4360246360301971</v>
+        <v>0.9812369346618652</v>
       </c>
       <c r="W70" t="n">
-        <v>0.186943382024765</v>
+        <v>0.01273349672555923</v>
       </c>
     </row>
     <row r="71" spans="1:23">
@@ -5469,10 +5469,10 @@
         <v>0.8702638149261475</v>
       </c>
       <c r="V71" t="n">
-        <v>0.6245107650756836</v>
+        <v>0.8644523024559021</v>
       </c>
       <c r="W71" t="n">
-        <v>0.06039456278085709</v>
+        <v>3.37736782967113e-05</v>
       </c>
     </row>
     <row r="72" spans="1:23">
@@ -5540,10 +5540,10 @@
         <v>0.8926279544830322</v>
       </c>
       <c r="V72" t="n">
-        <v>0.4873129427433014</v>
+        <v>0.9134944677352905</v>
       </c>
       <c r="W72" t="n">
-        <v>0.1642802655696869</v>
+        <v>0.0004354113771114498</v>
       </c>
     </row>
     <row r="73" spans="1:23">
@@ -5611,10 +5611,10 @@
         <v>0.9344460964202881</v>
       </c>
       <c r="V73" t="n">
-        <v>0.5760806798934937</v>
+        <v>0.5247738361358643</v>
       </c>
       <c r="W73" t="n">
-        <v>0.1284257769584656</v>
+        <v>0.1678313612937927</v>
       </c>
     </row>
     <row r="74" spans="1:23">
@@ -5682,10 +5682,10 @@
         <v>1.00794792175293</v>
       </c>
       <c r="V74" t="n">
-        <v>0.4360207617282867</v>
+        <v>0.8638465404510498</v>
       </c>
       <c r="W74" t="n">
-        <v>0.3271007239818573</v>
+        <v>0.02076520770788193</v>
       </c>
     </row>
     <row r="75" spans="1:23">
@@ -5753,10 +5753,10 @@
         <v>0.8800439834594727</v>
       </c>
       <c r="V75" t="n">
-        <v>0.6434009075164795</v>
+        <v>0.5124433636665344</v>
       </c>
       <c r="W75" t="n">
-        <v>0.05599994584918022</v>
+        <v>0.1351302117109299</v>
       </c>
     </row>
     <row r="76" spans="1:23">
@@ -5824,10 +5824,10 @@
         <v>0.8721909523010254</v>
       </c>
       <c r="V76" t="n">
-        <v>0.4536274671554565</v>
+        <v>0.8825961351394653</v>
       </c>
       <c r="W76" t="n">
-        <v>0.1751953959465027</v>
+        <v>0.0001082678281818517</v>
       </c>
     </row>
     <row r="77" spans="1:23">
@@ -5895,10 +5895,10 @@
         <v>0.8821659088134766</v>
       </c>
       <c r="V77" t="n">
-        <v>0.4581899344921112</v>
+        <v>0.5517371296882629</v>
       </c>
       <c r="W77" t="n">
-        <v>0.1797556281089783</v>
+        <v>0.1091831773519516</v>
       </c>
     </row>
     <row r="78" spans="1:23">
@@ -5966,10 +5966,10 @@
         <v>0.8857948780059814</v>
       </c>
       <c r="V78" t="n">
-        <v>0.480756551027298</v>
+        <v>0.53375244140625</v>
       </c>
       <c r="W78" t="n">
-        <v>0.1640560477972031</v>
+        <v>0.1239338740706444</v>
       </c>
     </row>
     <row r="79" spans="1:23">
@@ -6037,10 +6037,10 @@
         <v>0.8683860301971436</v>
       </c>
       <c r="V79" t="n">
-        <v>0.8231332302093506</v>
+        <v>0.4715505838394165</v>
       </c>
       <c r="W79" t="n">
-        <v>0.002047815825790167</v>
+        <v>0.1574783772230148</v>
       </c>
     </row>
     <row r="80" spans="1:23">
@@ -6108,10 +6108,10 @@
         <v>0.8622159957885742</v>
       </c>
       <c r="V80" t="n">
-        <v>0.5767316818237305</v>
+        <v>0.8672300577163696</v>
       </c>
       <c r="W80" t="n">
-        <v>0.08150129020214081</v>
+        <v>2.514081643312238e-05</v>
       </c>
     </row>
     <row r="81" spans="1:23">
@@ -6179,10 +6179,10 @@
         <v>0.8666620254516602</v>
       </c>
       <c r="V81" t="n">
-        <v>0.6340599060058594</v>
+        <v>0.9224499464035034</v>
       </c>
       <c r="W81" t="n">
-        <v>0.05410374701023102</v>
+        <v>0.003112292150035501</v>
       </c>
     </row>
     <row r="82" spans="1:23">
@@ -6250,10 +6250,10 @@
         <v>0.5558428764343262</v>
       </c>
       <c r="V82" t="n">
-        <v>0.5573711395263672</v>
+        <v>0.9603434205055237</v>
       </c>
       <c r="W82" t="n">
-        <v>2.335588078494766e-06</v>
+        <v>0.1636206954717636</v>
       </c>
     </row>
     <row r="83" spans="1:23">
@@ -6321,10 +6321,10 @@
         <v>0.5368978977203369</v>
       </c>
       <c r="V83" t="n">
-        <v>0.56879723072052</v>
+        <v>0.558098316192627</v>
       </c>
       <c r="W83" t="n">
-        <v>0.001017567468807101</v>
+        <v>0.0004494577297009528</v>
       </c>
     </row>
     <row r="84" spans="1:23">
@@ -6392,10 +6392,10 @@
         <v>0.5225358009338379</v>
       </c>
       <c r="V84" t="n">
-        <v>0.4867736101150513</v>
+        <v>0.5337799191474915</v>
       </c>
       <c r="W84" t="n">
-        <v>0.001278934301808476</v>
+        <v>0.0001264301972696558</v>
       </c>
     </row>
     <row r="85" spans="1:23">
@@ -6463,10 +6463,10 @@
         <v>0.5384631156921387</v>
       </c>
       <c r="V85" t="n">
-        <v>0.7337785959243774</v>
+        <v>0.4877347946166992</v>
       </c>
       <c r="W85" t="n">
-        <v>0.03814813867211342</v>
+        <v>0.002573362551629543</v>
       </c>
     </row>
     <row r="86" spans="1:23">
@@ -6534,10 +6534,10 @@
         <v>0.5558300018310547</v>
       </c>
       <c r="V86" t="n">
-        <v>0.6851100921630859</v>
+        <v>0.4679969549179077</v>
       </c>
       <c r="W86" t="n">
-        <v>0.0167133416980505</v>
+        <v>0.007714644074440002</v>
       </c>
     </row>
     <row r="87" spans="1:23">
@@ -6605,10 +6605,10 @@
         <v>0.5278911590576172</v>
       </c>
       <c r="V87" t="n">
-        <v>0.3790062367916107</v>
+        <v>0.8687459230422974</v>
       </c>
       <c r="W87" t="n">
-        <v>0.02216671966016293</v>
+        <v>0.1161819696426392</v>
       </c>
     </row>
     <row r="88" spans="1:23">
@@ -6676,10 +6676,10 @@
         <v>0.5133829116821289</v>
       </c>
       <c r="V88" t="n">
-        <v>0.5693919658660889</v>
+        <v>0.4784238338470459</v>
       </c>
       <c r="W88" t="n">
-        <v>0.003137014107778668</v>
+        <v>0.001222137128934264</v>
       </c>
     </row>
     <row r="89" spans="1:23">
@@ -6747,10 +6747,10 @@
         <v>0.5203299522399902</v>
       </c>
       <c r="V89" t="n">
-        <v>0.4360244274139404</v>
+        <v>0.9336785674095154</v>
       </c>
       <c r="W89" t="n">
-        <v>0.007107421290129423</v>
+        <v>0.1708570718765259</v>
       </c>
     </row>
     <row r="90" spans="1:23">
@@ -6818,10 +6818,10 @@
         <v>0.5177218914031982</v>
       </c>
       <c r="V90" t="n">
-        <v>0.4664293229579926</v>
+        <v>0.5339615345001221</v>
       </c>
       <c r="W90" t="n">
-        <v>0.002630927599966526</v>
+        <v>0.0002637260186020285</v>
       </c>
     </row>
     <row r="91" spans="1:23">
@@ -6889,10 +6889,10 @@
         <v>0.5217900276184082</v>
       </c>
       <c r="V91" t="n">
-        <v>0.6240432262420654</v>
+        <v>0.4818846583366394</v>
       </c>
       <c r="W91" t="n">
-        <v>0.01045571640133858</v>
+        <v>0.001592438551597297</v>
       </c>
     </row>
     <row r="92" spans="1:23">
@@ -6960,10 +6960,10 @@
         <v>0.5209360122680664</v>
       </c>
       <c r="V92" t="n">
-        <v>0.6568361520767212</v>
+        <v>0.4715283513069153</v>
       </c>
       <c r="W92" t="n">
-        <v>0.01846884749829769</v>
+        <v>0.002441117074340582</v>
       </c>
     </row>
     <row r="93" spans="1:23">
@@ -7031,10 +7031,10 @@
         <v>0.5276699066162109</v>
       </c>
       <c r="V93" t="n">
-        <v>0.4658282697200775</v>
+        <v>0.5315232276916504</v>
       </c>
       <c r="W93" t="n">
-        <v>0.003824388142675161</v>
+        <v>1.484808308305219e-05</v>
       </c>
     </row>
     <row r="94" spans="1:23">
@@ -7102,10 +7102,10 @@
         <v>0.5155179500579834</v>
       </c>
       <c r="V94" t="n">
-        <v>0.6605738401412964</v>
+        <v>0.478183388710022</v>
       </c>
       <c r="W94" t="n">
-        <v>0.02104121074080467</v>
+        <v>0.001393869519233704</v>
       </c>
     </row>
     <row r="95" spans="1:23">
@@ -7173,10 +7173,10 @@
         <v>0.5194981098175049</v>
       </c>
       <c r="V95" t="n">
-        <v>0.6257109642028809</v>
+        <v>0.9555925726890564</v>
       </c>
       <c r="W95" t="n">
-        <v>0.01128117088228464</v>
+        <v>0.1901783794164658</v>
       </c>
     </row>
     <row r="96" spans="1:23">
@@ -7244,10 +7244,10 @@
         <v>0.5719070434570312</v>
       </c>
       <c r="V96" t="n">
-        <v>0.5517270565032959</v>
+        <v>0.4775688648223877</v>
       </c>
       <c r="W96" t="n">
-        <v>0.000407231884310022</v>
+        <v>0.008899691514670849</v>
       </c>
     </row>
     <row r="97" spans="1:23">
@@ -7315,10 +7315,10 @@
         <v>0.5198080539703369</v>
       </c>
       <c r="V97" t="n">
-        <v>0.4582692682743073</v>
+        <v>0.5543949604034424</v>
       </c>
       <c r="W97" t="n">
-        <v>0.003787022083997726</v>
+        <v>0.001196254044771194</v>
       </c>
     </row>
     <row r="98" spans="1:23">
@@ -7386,10 +7386,10 @@
         <v>0.5201311111450195</v>
       </c>
       <c r="V98" t="n">
-        <v>0.4704041182994843</v>
+        <v>0.9184520840644836</v>
       </c>
       <c r="W98" t="n">
-        <v>0.00247277389280498</v>
+        <v>0.1586595922708511</v>
       </c>
     </row>
     <row r="99" spans="1:23">
@@ -7457,10 +7457,10 @@
         <v>0.5220580101013184</v>
       </c>
       <c r="V99" t="n">
-        <v>0.5496547222137451</v>
+        <v>0.9399393200874329</v>
       </c>
       <c r="W99" t="n">
-        <v>0.0007615784998051822</v>
+        <v>0.1746247857809067</v>
       </c>
     </row>
     <row r="100" spans="1:23">
@@ -7528,10 +7528,10 @@
         <v>0.5203979015350342</v>
       </c>
       <c r="V100" t="n">
-        <v>0.6530184745788574</v>
+        <v>0.4782029986381531</v>
       </c>
       <c r="W100" t="n">
-        <v>0.01758821681141853</v>
+        <v>0.001780409831553698</v>
       </c>
     </row>
     <row r="101" spans="1:23">
@@ -7599,10 +7599,10 @@
         <v>0.5324001312255859</v>
       </c>
       <c r="V101" t="n">
-        <v>0.8164883852005005</v>
+        <v>0.4707464575767517</v>
       </c>
       <c r="W101" t="n">
-        <v>0.08070613443851471</v>
+        <v>0.003801175393164158</v>
       </c>
     </row>
     <row r="102" spans="1:23">
@@ -7670,10 +7670,10 @@
         <v>0.4669079780578613</v>
       </c>
       <c r="V102" t="n">
-        <v>0.7324898242950439</v>
+        <v>0.982597827911377</v>
       </c>
       <c r="W102" t="n">
-        <v>0.07053371518850327</v>
+        <v>0.265936017036438</v>
       </c>
     </row>
     <row r="103" spans="1:23">
@@ -7741,10 +7741,10 @@
         <v>0.4054429531097412</v>
       </c>
       <c r="V103" t="n">
-        <v>0.5489695072174072</v>
+        <v>0.4784489870071411</v>
       </c>
       <c r="W103" t="n">
-        <v>0.02059987187385559</v>
+        <v>0.005329880863428116</v>
       </c>
     </row>
     <row r="104" spans="1:23">
@@ -7812,10 +7812,10 @@
         <v>0.3941051959991455</v>
       </c>
       <c r="V104" t="n">
-        <v>0.6280151605606079</v>
+        <v>0.5180732607841492</v>
       </c>
       <c r="W104" t="n">
-        <v>0.05471387133002281</v>
+        <v>0.0153680806979537</v>
       </c>
     </row>
     <row r="105" spans="1:23">
@@ -7883,10 +7883,10 @@
         <v>0.4042239189147949</v>
       </c>
       <c r="V105" t="n">
-        <v>0.4553817808628082</v>
+        <v>0.8678387999534607</v>
       </c>
       <c r="W105" t="n">
-        <v>0.002617126796394587</v>
+        <v>0.214938759803772</v>
       </c>
     </row>
     <row r="106" spans="1:23">
@@ -7954,10 +7954,10 @@
         <v>0.3869490623474121</v>
       </c>
       <c r="V106" t="n">
-        <v>0.5720549821853638</v>
+        <v>0.4692001342773438</v>
       </c>
       <c r="W106" t="n">
-        <v>0.03426420316100121</v>
+        <v>0.00676523894071579</v>
       </c>
     </row>
     <row r="107" spans="1:23">
@@ -8025,10 +8025,10 @@
         <v>0.3908250331878662</v>
       </c>
       <c r="V107" t="n">
-        <v>0.3785422742366791</v>
+        <v>0.4737516045570374</v>
       </c>
       <c r="W107" t="n">
-        <v>0.0001508661662228405</v>
+        <v>0.006876816041767597</v>
       </c>
     </row>
     <row r="108" spans="1:23">
@@ -8096,10 +8096,10 @@
         <v>0.3896760940551758</v>
       </c>
       <c r="V108" t="n">
-        <v>0.435836523771286</v>
+        <v>0.4752963185310364</v>
       </c>
       <c r="W108" t="n">
-        <v>0.002130785258486867</v>
+        <v>0.007330822758376598</v>
       </c>
     </row>
     <row r="109" spans="1:23">
@@ -8167,10 +8167,10 @@
         <v>0.3902239799499512</v>
       </c>
       <c r="V109" t="n">
-        <v>0.4363715648651123</v>
+        <v>0.8982829451560974</v>
       </c>
       <c r="W109" t="n">
-        <v>0.002129599684849381</v>
+        <v>0.258123904466629</v>
       </c>
     </row>
     <row r="110" spans="1:23">
@@ -8238,10 +8238,10 @@
         <v>0.3901910781860352</v>
       </c>
       <c r="V110" t="n">
-        <v>0.5730562210083008</v>
+        <v>0.9090489149093628</v>
       </c>
       <c r="W110" t="n">
-        <v>0.03343966230750084</v>
+        <v>0.26921346783638</v>
       </c>
     </row>
     <row r="111" spans="1:23">
@@ -8309,10 +8309,10 @@
         <v>0.39339280128479</v>
       </c>
       <c r="V111" t="n">
-        <v>0.4578924179077148</v>
+        <v>0.51288902759552</v>
       </c>
       <c r="W111" t="n">
-        <v>0.004160200711339712</v>
+        <v>0.01427934784442186</v>
       </c>
     </row>
     <row r="112" spans="1:23">
@@ -8380,10 +8380,10 @@
         <v>0.4686710834503174</v>
       </c>
       <c r="V112" t="n">
-        <v>0.4575594365596771</v>
+        <v>0.4831711649894714</v>
       </c>
       <c r="W112" t="n">
-        <v>0.0001234686933457851</v>
+        <v>0.0002102523576468229</v>
       </c>
     </row>
     <row r="113" spans="1:23">
@@ -8451,10 +8451,10 @@
         <v>0.6834900379180908</v>
       </c>
       <c r="V113" t="n">
-        <v>0.4535786509513855</v>
+        <v>0.9550245404243469</v>
       </c>
       <c r="W113" t="n">
-        <v>0.05285924673080444</v>
+        <v>0.07373098284006119</v>
       </c>
     </row>
     <row r="114" spans="1:23">
@@ -8522,10 +8522,10 @@
         <v>0.40848708152771</v>
       </c>
       <c r="V114" t="n">
-        <v>0.5526690483093262</v>
+        <v>0.5519628524780273</v>
       </c>
       <c r="W114" t="n">
-        <v>0.02078843861818314</v>
+        <v>0.02058529667556286</v>
       </c>
     </row>
     <row r="115" spans="1:23">
@@ -8593,10 +8593,10 @@
         <v>0.3934600353240967</v>
       </c>
       <c r="V115" t="n">
-        <v>0.4360179901123047</v>
+        <v>0.4782760739326477</v>
       </c>
       <c r="W115" t="n">
-        <v>0.001811179565265775</v>
+        <v>0.007193760480731726</v>
       </c>
     </row>
     <row r="116" spans="1:23">
@@ -8664,10 +8664,10 @@
         <v>0.3943271636962891</v>
       </c>
       <c r="V116" t="n">
-        <v>0.5677254199981689</v>
+        <v>0.9172156453132629</v>
       </c>
       <c r="W116" t="n">
-        <v>0.03006695583462715</v>
+        <v>0.2734123766422272</v>
       </c>
     </row>
     <row r="117" spans="1:23">
@@ -8735,10 +8735,10 @@
         <v>0.3956549167633057</v>
       </c>
       <c r="V117" t="n">
-        <v>0.4706680178642273</v>
+        <v>0.5517322421073914</v>
       </c>
       <c r="W117" t="n">
-        <v>0.005626965314149857</v>
+        <v>0.02436013147234917</v>
       </c>
     </row>
     <row r="118" spans="1:23">
@@ -8806,10 +8806,10 @@
         <v>0.4093818664550781</v>
       </c>
       <c r="V118" t="n">
-        <v>0.4755290746688843</v>
+        <v>0.868928074836731</v>
       </c>
       <c r="W118" t="n">
-        <v>0.004375453107059002</v>
+        <v>0.211182713508606</v>
       </c>
     </row>
     <row r="119" spans="1:23">
@@ -8877,10 +8877,10 @@
         <v>0.4337210655212402</v>
       </c>
       <c r="V119" t="n">
-        <v>0.624763011932373</v>
+        <v>0.8701755404472351</v>
       </c>
       <c r="W119" t="n">
-        <v>0.03649702668190002</v>
+        <v>0.1904925107955933</v>
       </c>
     </row>
     <row r="120" spans="1:23">
@@ -8948,10 +8948,10 @@
         <v>0.400670051574707</v>
       </c>
       <c r="V120" t="n">
-        <v>0.4576598405838013</v>
+        <v>0.5515806078910828</v>
       </c>
       <c r="W120" t="n">
-        <v>0.003247836139053106</v>
+        <v>0.02277399599552155</v>
       </c>
     </row>
     <row r="121" spans="1:23">
@@ -9019,10 +9019,10 @@
         <v>0.3932690620422363</v>
       </c>
       <c r="V121" t="n">
-        <v>0.5515128374099731</v>
+        <v>0.4818758368492126</v>
       </c>
       <c r="W121" t="n">
-        <v>0.02504109218716621</v>
+        <v>0.007851160131394863</v>
       </c>
     </row>
     <row r="122" spans="1:23">
@@ -9090,10 +9090,10 @@
         <v>0.8711731433868408</v>
       </c>
       <c r="V122" t="n">
-        <v>0.5039443373680115</v>
+        <v>0.4679328203201294</v>
       </c>
       <c r="W122" t="n">
-        <v>0.1348569989204407</v>
+        <v>0.1626027524471283</v>
       </c>
     </row>
     <row r="123" spans="1:23">
@@ -9161,10 +9161,10 @@
         <v>0.8774368762969971</v>
       </c>
       <c r="V123" t="n">
-        <v>0.6047799587249756</v>
+        <v>0.4769856929779053</v>
       </c>
       <c r="W123" t="n">
-        <v>0.0743417963385582</v>
+        <v>0.1603611558675766</v>
       </c>
     </row>
     <row r="124" spans="1:23">
@@ -9232,10 +9232,10 @@
         <v>0.9265050888061523</v>
       </c>
       <c r="V124" t="n">
-        <v>0.4357438981533051</v>
+        <v>0.6147290468215942</v>
       </c>
       <c r="W124" t="n">
-        <v>0.2408465445041656</v>
+        <v>0.0972042977809906</v>
       </c>
     </row>
     <row r="125" spans="1:23">
@@ -9303,10 +9303,10 @@
         <v>0.8786499500274658</v>
       </c>
       <c r="V125" t="n">
-        <v>0.4731965661048889</v>
+        <v>0.4680550098419189</v>
       </c>
       <c r="W125" t="n">
-        <v>0.1643924415111542</v>
+        <v>0.1685882061719894</v>
       </c>
     </row>
     <row r="126" spans="1:23">
@@ -9374,10 +9374,10 @@
         <v>0.911376953125</v>
       </c>
       <c r="V126" t="n">
-        <v>0.3900977373123169</v>
+        <v>0.4836094975471497</v>
       </c>
       <c r="W126" t="n">
-        <v>0.2717320322990417</v>
+        <v>0.1829849928617477</v>
       </c>
     </row>
     <row r="127" spans="1:23">
@@ -9445,10 +9445,10 @@
         <v>0.883713960647583</v>
       </c>
       <c r="V127" t="n">
-        <v>0.4535927176475525</v>
+        <v>0.9272565245628357</v>
       </c>
       <c r="W127" t="n">
-        <v>0.1850042790174484</v>
+        <v>0.001895954832434654</v>
       </c>
     </row>
     <row r="128" spans="1:23">
@@ -9516,10 +9516,10 @@
         <v>0.9248020648956299</v>
       </c>
       <c r="V128" t="n">
-        <v>0.6187922954559326</v>
+        <v>0.4791481494903564</v>
       </c>
       <c r="W128" t="n">
-        <v>0.0936419814825058</v>
+        <v>0.1986074149608612</v>
       </c>
     </row>
     <row r="129" spans="1:23">
@@ -9587,10 +9587,10 @@
         <v>0.8692669868469238</v>
       </c>
       <c r="V129" t="n">
-        <v>0.6580631732940674</v>
+        <v>0.5585297346115112</v>
       </c>
       <c r="W129" t="n">
-        <v>0.04460705071687698</v>
+        <v>0.09655763953924179</v>
       </c>
     </row>
     <row r="130" spans="1:23">
@@ -9658,10 +9658,10 @@
         <v>0.8648159503936768</v>
       </c>
       <c r="V130" t="n">
-        <v>0.5017546415328979</v>
+        <v>0.6225792765617371</v>
       </c>
       <c r="W130" t="n">
-        <v>0.1318135112524033</v>
+        <v>0.05867860466241837</v>
       </c>
     </row>
     <row r="131" spans="1:23">
@@ -9729,10 +9729,10 @@
         <v>0.8667480945587158</v>
       </c>
       <c r="V131" t="n">
-        <v>0.4864535331726074</v>
+        <v>0.9467782974243164</v>
       </c>
       <c r="W131" t="n">
-        <v>0.1446239501237869</v>
+        <v>0.006404833402484655</v>
       </c>
     </row>
     <row r="132" spans="1:23">
@@ -9800,10 +9800,10 @@
         <v>0.9356780052185059</v>
       </c>
       <c r="V132" t="n">
-        <v>0.8167376518249512</v>
+        <v>0.5334966778755188</v>
       </c>
       <c r="W132" t="n">
-        <v>0.01414680760353804</v>
+        <v>0.1617498248815536</v>
       </c>
     </row>
     <row r="133" spans="1:23">
@@ -9871,10 +9871,10 @@
         <v>0.8842630386352539</v>
       </c>
       <c r="V133" t="n">
-        <v>0.5654192566871643</v>
+        <v>0.5339006781578064</v>
       </c>
       <c r="W133" t="n">
-        <v>0.10166135430336</v>
+        <v>0.1227537840604782</v>
       </c>
     </row>
     <row r="134" spans="1:23">
@@ -9942,10 +9942,10 @@
         <v>0.8739171028137207</v>
       </c>
       <c r="V134" t="n">
-        <v>0.4582839906215668</v>
+        <v>0.5063483715057373</v>
       </c>
       <c r="W134" t="n">
-        <v>0.1727508902549744</v>
+        <v>0.1351067721843719</v>
       </c>
     </row>
     <row r="135" spans="1:23">
@@ -10013,10 +10013,10 @@
         <v>0.8755168914794922</v>
       </c>
       <c r="V135" t="n">
-        <v>0.5040199756622314</v>
+        <v>0.5518102049827576</v>
       </c>
       <c r="W135" t="n">
-        <v>0.1380099654197693</v>
+        <v>0.1047860160470009</v>
       </c>
     </row>
     <row r="136" spans="1:23">
@@ -10084,10 +10084,10 @@
         <v>0.874000072479248</v>
       </c>
       <c r="V136" t="n">
-        <v>0.4360276758670807</v>
+        <v>0.6240502595901489</v>
       </c>
       <c r="W136" t="n">
-        <v>0.191819816827774</v>
+        <v>0.06247491016983986</v>
       </c>
     </row>
     <row r="137" spans="1:23">
@@ -10155,10 +10155,10 @@
         <v>0.8749480247497559</v>
       </c>
       <c r="V137" t="n">
-        <v>0.5011930465698242</v>
+        <v>0.5517643094062805</v>
       </c>
       <c r="W137" t="n">
-        <v>0.1396927833557129</v>
+        <v>0.104447714984417</v>
       </c>
     </row>
     <row r="138" spans="1:23">
@@ -10226,10 +10226,10 @@
         <v>0.8735060691833496</v>
       </c>
       <c r="V138" t="n">
-        <v>0.4813840687274933</v>
+        <v>0.8828146457672119</v>
       </c>
       <c r="W138" t="n">
-        <v>0.1537596583366394</v>
+        <v>8.664959750603884e-05</v>
       </c>
     </row>
     <row r="139" spans="1:23">
@@ -10297,10 +10297,10 @@
         <v>0.8731160163879395</v>
       </c>
       <c r="V139" t="n">
-        <v>0.6487832069396973</v>
+        <v>0.948790967464447</v>
       </c>
       <c r="W139" t="n">
-        <v>0.05032521113753319</v>
+        <v>0.005726698320358992</v>
       </c>
     </row>
     <row r="140" spans="1:23">
@@ -10368,10 +10368,10 @@
         <v>0.8761031627655029</v>
       </c>
       <c r="V140" t="n">
-        <v>0.6732223033905029</v>
+        <v>0.4943219423294067</v>
       </c>
       <c r="W140" t="n">
-        <v>0.04116064310073853</v>
+        <v>0.1457569003105164</v>
       </c>
     </row>
     <row r="141" spans="1:23">
@@ -10439,10 +10439,10 @@
         <v>0.8762381076812744</v>
       </c>
       <c r="V141" t="n">
-        <v>0.3823255002498627</v>
+        <v>0.53983473777771</v>
       </c>
       <c r="W141" t="n">
-        <v>0.2439496666193008</v>
+        <v>0.1131672263145447</v>
       </c>
     </row>
     <row r="142" spans="1:23">
@@ -10510,10 +10510,10 @@
         <v>0.5425300598144531</v>
       </c>
       <c r="V142" t="n">
-        <v>0.505409836769104</v>
+        <v>0.4717193245887756</v>
       </c>
       <c r="W142" t="n">
-        <v>0.001377910957671702</v>
+        <v>0.005014160182327032</v>
       </c>
     </row>
     <row r="143" spans="1:23">
@@ -10581,10 +10581,10 @@
         <v>0.5303299427032471</v>
       </c>
       <c r="V143" t="n">
-        <v>0.6585376262664795</v>
+        <v>0.4776765704154968</v>
       </c>
       <c r="W143" t="n">
-        <v>0.01643721014261246</v>
+        <v>0.002772377571091056</v>
       </c>
     </row>
     <row r="144" spans="1:23">
@@ -10652,10 +10652,10 @@
         <v>0.5818018913269043</v>
       </c>
       <c r="V144" t="n">
-        <v>0.5535620450973511</v>
+        <v>0.9570751786231995</v>
       </c>
       <c r="W144" t="n">
-        <v>0.0007974889012984931</v>
+        <v>0.1408300399780273</v>
       </c>
     </row>
     <row r="145" spans="1:23">
@@ -10723,10 +10723,10 @@
         <v>0.5204288959503174</v>
       </c>
       <c r="V145" t="n">
-        <v>0.4360257685184479</v>
+        <v>0.9318834543228149</v>
       </c>
       <c r="W145" t="n">
-        <v>0.007123888004571199</v>
+        <v>0.1692948490381241</v>
       </c>
     </row>
     <row r="146" spans="1:23">
@@ -10794,10 +10794,10 @@
         <v>0.5220580101013184</v>
       </c>
       <c r="V146" t="n">
-        <v>0.4579397141933441</v>
+        <v>0.467617928981781</v>
       </c>
       <c r="W146" t="n">
-        <v>0.004111155867576599</v>
+        <v>0.002963722450658679</v>
       </c>
     </row>
     <row r="147" spans="1:23">
@@ -10865,10 +10865,10 @@
         <v>0.5379500389099121</v>
       </c>
       <c r="V147" t="n">
-        <v>0.6259042024612427</v>
+        <v>0.5519272089004517</v>
       </c>
       <c r="W147" t="n">
-        <v>0.007735935039818287</v>
+        <v>0.0001953612809302285</v>
       </c>
     </row>
     <row r="148" spans="1:23">
@@ -10936,10 +10936,10 @@
         <v>0.5232589244842529</v>
       </c>
       <c r="V148" t="n">
-        <v>0.5551027059555054</v>
+        <v>0.4815391302108765</v>
       </c>
       <c r="W148" t="n">
-        <v>0.001014026463963091</v>
+        <v>0.001740541192702949</v>
       </c>
     </row>
     <row r="149" spans="1:23">
@@ -11007,10 +11007,10 @@
         <v>0.5255138874053955</v>
       </c>
       <c r="V149" t="n">
-        <v>0.7365775108337402</v>
+        <v>0.8694674372673035</v>
       </c>
       <c r="W149" t="n">
-        <v>0.04454785212874413</v>
+        <v>0.118304044008255</v>
       </c>
     </row>
     <row r="150" spans="1:23">
@@ -11078,10 +11078,10 @@
         <v>0.5638060569763184</v>
       </c>
       <c r="V150" t="n">
-        <v>0.5689204931259155</v>
+        <v>0.4774734973907471</v>
       </c>
       <c r="W150" t="n">
-        <v>2.615745688672177e-05</v>
+        <v>0.007453310769051313</v>
       </c>
     </row>
     <row r="151" spans="1:23">
@@ -11149,10 +11149,10 @@
         <v>0.526716947555542</v>
       </c>
       <c r="V151" t="n">
-        <v>0.5019413232803345</v>
+        <v>0.5234543085098267</v>
       </c>
       <c r="W151" t="n">
-        <v>0.0006138315657153726</v>
+        <v>1.064481330104172e-05</v>
       </c>
     </row>
     <row r="152" spans="1:23">
@@ -11220,10 +11220,10 @@
         <v>0.5442018508911133</v>
       </c>
       <c r="V152" t="n">
-        <v>0.6239811182022095</v>
+        <v>0.4717381000518799</v>
       </c>
       <c r="W152" t="n">
-        <v>0.006364731583744287</v>
+        <v>0.005250995047390461</v>
       </c>
     </row>
     <row r="153" spans="1:23">
@@ -11291,10 +11291,10 @@
         <v>0.5199310779571533</v>
       </c>
       <c r="V153" t="n">
-        <v>0.6420996189117432</v>
+        <v>0.5516892075538635</v>
       </c>
       <c r="W153" t="n">
-        <v>0.01492515206336975</v>
+        <v>0.0010085788089782</v>
       </c>
     </row>
     <row r="154" spans="1:23">
@@ -11362,10 +11362,10 @@
         <v>0.5260131359100342</v>
       </c>
       <c r="V154" t="n">
-        <v>0.7538954019546509</v>
+        <v>0.9017913341522217</v>
       </c>
       <c r="W154" t="n">
-        <v>0.05193032696843147</v>
+        <v>0.1412092596292496</v>
       </c>
     </row>
     <row r="155" spans="1:23">
@@ -11433,10 +11433,10 @@
         <v>0.5269739627838135</v>
       </c>
       <c r="V155" t="n">
-        <v>0.7384928464889526</v>
+        <v>0.5130515098571777</v>
       </c>
       <c r="W155" t="n">
-        <v>0.04474023729562759</v>
+        <v>0.0001938346977112815</v>
       </c>
     </row>
     <row r="156" spans="1:23">
@@ -11504,10 +11504,10 @@
         <v>0.5227911472320557</v>
       </c>
       <c r="V156" t="n">
-        <v>0.5066593885421753</v>
+        <v>0.4912453889846802</v>
       </c>
       <c r="W156" t="n">
-        <v>0.0002602336462587118</v>
+        <v>0.00099513481836766</v>
       </c>
     </row>
     <row r="157" spans="1:23">
@@ -11575,10 +11575,10 @@
         <v>0.5201258659362793</v>
       </c>
       <c r="V157" t="n">
-        <v>0.6880613565444946</v>
+        <v>0.4783236384391785</v>
       </c>
       <c r="W157" t="n">
-        <v>0.02820232883095741</v>
+        <v>0.001747426227666438</v>
       </c>
     </row>
     <row r="158" spans="1:23">
@@ -11646,10 +11646,10 @@
         <v>0.5201921463012695</v>
       </c>
       <c r="V158" t="n">
-        <v>0.4360238015651703</v>
+        <v>0.5586647391319275</v>
       </c>
       <c r="W158" t="n">
-        <v>0.007084310054779053</v>
+        <v>0.001480140374042094</v>
       </c>
     </row>
     <row r="159" spans="1:23">
@@ -11717,10 +11717,10 @@
         <v>0.5204060077667236</v>
       </c>
       <c r="V159" t="n">
-        <v>0.6890506744384766</v>
+        <v>0.5312127470970154</v>
       </c>
       <c r="W159" t="n">
-        <v>0.02844102308154106</v>
+        <v>0.0001167856171377935</v>
       </c>
     </row>
     <row r="160" spans="1:23">
@@ -11788,10 +11788,10 @@
         <v>0.575502872467041</v>
       </c>
       <c r="V160" t="n">
-        <v>0.6185418367385864</v>
+        <v>0.4774960279464722</v>
       </c>
       <c r="W160" t="n">
-        <v>0.00185235240496695</v>
+        <v>0.009605341590940952</v>
       </c>
     </row>
     <row r="161" spans="1:23">
@@ -11859,10 +11859,10 @@
         <v>0.5227921009063721</v>
       </c>
       <c r="V161" t="n">
-        <v>0.3788443207740784</v>
+        <v>0.8845564723014832</v>
       </c>
       <c r="W161" t="n">
-        <v>0.02072096429765224</v>
+        <v>0.1308734565973282</v>
       </c>
     </row>
     <row r="162" spans="1:23">
@@ -11930,10 +11930,10 @@
         <v>0.3967180252075195</v>
       </c>
       <c r="V162" t="n">
-        <v>0.6570971012115479</v>
+        <v>0.956686794757843</v>
       </c>
       <c r="W162" t="n">
-        <v>0.06779726594686508</v>
+        <v>0.3135650157928467</v>
       </c>
     </row>
     <row r="163" spans="1:23">
@@ -12001,10 +12001,10 @@
         <v>0.3966259956359863</v>
       </c>
       <c r="V163" t="n">
-        <v>0.4363065361976624</v>
+        <v>0.5339848399162292</v>
       </c>
       <c r="W163" t="n">
-        <v>0.001574545283801854</v>
+        <v>0.01886745169758797</v>
       </c>
     </row>
     <row r="164" spans="1:23">
@@ -12072,10 +12072,10 @@
         <v>0.3924560546875</v>
       </c>
       <c r="V164" t="n">
-        <v>0.4576366245746613</v>
+        <v>0.477435827255249</v>
       </c>
       <c r="W164" t="n">
-        <v>0.004248506855219603</v>
+        <v>0.00722156185656786</v>
       </c>
     </row>
     <row r="165" spans="1:23">
@@ -12143,10 +12143,10 @@
         <v>0.3941440582275391</v>
       </c>
       <c r="V165" t="n">
-        <v>0.6457363367080688</v>
+        <v>0.9386444687843323</v>
       </c>
       <c r="W165" t="n">
-        <v>0.06329867243766785</v>
+        <v>0.2964806854724884</v>
       </c>
     </row>
     <row r="166" spans="1:23">
@@ -12214,10 +12214,10 @@
         <v>0.4394950866699219</v>
       </c>
       <c r="V166" t="n">
-        <v>0.5545951128005981</v>
+        <v>0.4873590469360352</v>
       </c>
       <c r="W166" t="n">
-        <v>0.01324801612645388</v>
+        <v>0.00229095877148211</v>
       </c>
     </row>
     <row r="167" spans="1:23">
@@ -12285,10 +12285,10 @@
         <v>0.3968589305877686</v>
       </c>
       <c r="V167" t="n">
-        <v>0.5499672889709473</v>
+        <v>0.4668310284614563</v>
       </c>
       <c r="W167" t="n">
-        <v>0.02344216965138912</v>
+        <v>0.004896094556897879</v>
       </c>
     </row>
     <row r="168" spans="1:23">
@@ -12356,10 +12356,10 @@
         <v>0.3933479785919189</v>
       </c>
       <c r="V168" t="n">
-        <v>0.5545165538787842</v>
+        <v>0.617511510848999</v>
       </c>
       <c r="W168" t="n">
-        <v>0.0259753093123436</v>
+        <v>0.05024928972125053</v>
       </c>
     </row>
     <row r="169" spans="1:23">
@@ -12427,10 +12427,10 @@
         <v>0.3951339721679688</v>
       </c>
       <c r="V169" t="n">
-        <v>0.6241047382354736</v>
+        <v>0.4774100780487061</v>
       </c>
       <c r="W169" t="n">
-        <v>0.05242761224508286</v>
+        <v>0.006769357714802027</v>
       </c>
     </row>
     <row r="170" spans="1:23">
@@ -12498,10 +12498,10 @@
         <v>0.3934040069580078</v>
       </c>
       <c r="V170" t="n">
-        <v>0.6275705099105835</v>
+        <v>0.4931607246398926</v>
       </c>
       <c r="W170" t="n">
-        <v>0.05483395233750343</v>
+        <v>0.009951402433216572</v>
       </c>
     </row>
     <row r="171" spans="1:23">
@@ -12569,10 +12569,10 @@
         <v>0.3920400142669678</v>
       </c>
       <c r="V171" t="n">
-        <v>0.8181720972061157</v>
+        <v>0.9311726689338684</v>
       </c>
       <c r="W171" t="n">
-        <v>0.1815885454416275</v>
+        <v>0.29066401720047</v>
       </c>
     </row>
     <row r="172" spans="1:23">
@@ -12640,10 +12640,10 @@
         <v>0.4604871273040771</v>
       </c>
       <c r="V172" t="n">
-        <v>0.6258492469787598</v>
+        <v>0.9542322158813477</v>
       </c>
       <c r="W172" t="n">
-        <v>0.02734463103115559</v>
+        <v>0.2437842190265656</v>
       </c>
     </row>
     <row r="173" spans="1:23">
@@ -12711,10 +12711,10 @@
         <v>0.3986358642578125</v>
       </c>
       <c r="V173" t="n">
-        <v>0.4551306962966919</v>
+        <v>0.9304924011230469</v>
       </c>
       <c r="W173" t="n">
-        <v>0.003191665979102254</v>
+        <v>0.2828713655471802</v>
       </c>
     </row>
     <row r="174" spans="1:23">
@@ -12782,10 +12782,10 @@
         <v>0.4185209274291992</v>
       </c>
       <c r="V174" t="n">
-        <v>0.6175475120544434</v>
+        <v>0.5239303112030029</v>
       </c>
       <c r="W174" t="n">
-        <v>0.0396115817129612</v>
+        <v>0.01111113838851452</v>
       </c>
     </row>
     <row r="175" spans="1:23">
@@ -12853,10 +12853,10 @@
         <v>0.397615909576416</v>
       </c>
       <c r="V175" t="n">
-        <v>0.4357512891292572</v>
+        <v>0.4829621315002441</v>
       </c>
       <c r="W175" t="n">
-        <v>0.001454307115636766</v>
+        <v>0.007283977698534727</v>
       </c>
     </row>
     <row r="176" spans="1:23">
@@ -12924,10 +12924,10 @@
         <v>0.3952150344848633</v>
       </c>
       <c r="V176" t="n">
-        <v>0.4641658961772919</v>
+        <v>0.4675397276878357</v>
       </c>
       <c r="W176" t="n">
-        <v>0.00475422153249383</v>
+        <v>0.005230861250311136</v>
       </c>
     </row>
     <row r="177" spans="1:23">
@@ -12995,10 +12995,10 @@
         <v>0.4167029857635498</v>
       </c>
       <c r="V177" t="n">
-        <v>0.3819113075733185</v>
+        <v>0.5239782333374023</v>
       </c>
       <c r="W177" t="n">
-        <v>0.001210460904985666</v>
+        <v>0.01150797866284847</v>
       </c>
     </row>
     <row r="178" spans="1:23">
@@ -13066,10 +13066,10 @@
         <v>0.4565739631652832</v>
       </c>
       <c r="V178" t="n">
-        <v>0.5035736560821533</v>
+        <v>0.523657500743866</v>
       </c>
       <c r="W178" t="n">
-        <v>0.002208971185609698</v>
+        <v>0.004500200971961021</v>
       </c>
     </row>
     <row r="179" spans="1:23">
@@ -13137,10 +13137,10 @@
         <v>0.3953800201416016</v>
       </c>
       <c r="V179" t="n">
-        <v>0.3778295516967773</v>
+        <v>0.4718889594078064</v>
       </c>
       <c r="W179" t="n">
-        <v>0.0003080189344473183</v>
+        <v>0.005853617563843727</v>
       </c>
     </row>
     <row r="180" spans="1:23">
@@ -13208,10 +13208,10 @@
         <v>0.3952269554138184</v>
       </c>
       <c r="V180" t="n">
-        <v>0.6241402626037598</v>
+        <v>0.4676353335380554</v>
       </c>
       <c r="W180" t="n">
-        <v>0.05240130051970482</v>
+        <v>0.005242973100394011</v>
       </c>
     </row>
     <row r="181" spans="1:23">
@@ -13279,10 +13279,10 @@
         <v>0.40985107421875</v>
       </c>
       <c r="V181" t="n">
-        <v>0.476378470659256</v>
+        <v>0.8718057870864868</v>
       </c>
       <c r="W181" t="n">
-        <v>0.004425894469022751</v>
+        <v>0.2134021520614624</v>
       </c>
     </row>
     <row r="182" spans="1:23">
@@ -13350,10 +13350,10 @@
         <v>0.8757898807525635</v>
       </c>
       <c r="V182" t="n">
-        <v>0.561543881893158</v>
+        <v>0.4811098575592041</v>
       </c>
       <c r="W182" t="n">
-        <v>0.09875054657459259</v>
+        <v>0.1557723134756088</v>
       </c>
     </row>
     <row r="183" spans="1:23">
@@ -13421,10 +13421,10 @@
         <v>0.9216158390045166</v>
       </c>
       <c r="V183" t="n">
-        <v>0.5659756064414978</v>
+        <v>0.483007550239563</v>
       </c>
       <c r="W183" t="n">
-        <v>0.1264799684286118</v>
+        <v>0.1923772245645523</v>
       </c>
     </row>
     <row r="184" spans="1:23">
@@ -13492,10 +13492,10 @@
         <v>0.8719899654388428</v>
       </c>
       <c r="V184" t="n">
-        <v>0.8167510032653809</v>
+        <v>0.4931188225746155</v>
       </c>
       <c r="W184" t="n">
-        <v>0.003051342908293009</v>
+        <v>0.1435433477163315</v>
       </c>
     </row>
     <row r="185" spans="1:23">
@@ -13563,10 +13563,10 @@
         <v>0.8814821243286133</v>
       </c>
       <c r="V185" t="n">
-        <v>0.4962058663368225</v>
+        <v>0.5517910718917847</v>
       </c>
       <c r="W185" t="n">
-        <v>0.1484377980232239</v>
+        <v>0.1086961925029755</v>
       </c>
     </row>
     <row r="186" spans="1:23">
@@ -13634,10 +13634,10 @@
         <v>0.8747470378875732</v>
       </c>
       <c r="V186" t="n">
-        <v>0.3801888823509216</v>
+        <v>0.5515841245651245</v>
       </c>
       <c r="W186" t="n">
-        <v>0.2445877641439438</v>
+        <v>0.1044342666864395</v>
       </c>
     </row>
     <row r="187" spans="1:23">
@@ -13705,10 +13705,10 @@
         <v>0.9553229808807373</v>
       </c>
       <c r="V187" t="n">
-        <v>0.4360131323337555</v>
+        <v>0.9710099697113037</v>
       </c>
       <c r="W187" t="n">
-        <v>0.2696827352046967</v>
+        <v>0.0002460816176608205</v>
       </c>
     </row>
     <row r="188" spans="1:23">
@@ -13776,10 +13776,10 @@
         <v>0.8733320236206055</v>
       </c>
       <c r="V188" t="n">
-        <v>0.7248722314834595</v>
+        <v>0.8694179654121399</v>
       </c>
       <c r="W188" t="n">
-        <v>0.02204030938446522</v>
+        <v>1.531985253677703e-05</v>
       </c>
     </row>
     <row r="189" spans="1:23">
@@ -13847,10 +13847,10 @@
         <v>0.8774330615997314</v>
       </c>
       <c r="V189" t="n">
-        <v>0.6167548894882202</v>
+        <v>0.8692556023597717</v>
       </c>
       <c r="W189" t="n">
-        <v>0.06795310974121094</v>
+        <v>6.687083805445582e-05</v>
       </c>
     </row>
     <row r="190" spans="1:23">
@@ -13918,10 +13918,10 @@
         <v>0.906519889831543</v>
       </c>
       <c r="V190" t="n">
-        <v>0.5474125146865845</v>
+        <v>0.5312080383300781</v>
       </c>
       <c r="W190" t="n">
-        <v>0.1289581060409546</v>
+        <v>0.140858992934227</v>
       </c>
     </row>
     <row r="191" spans="1:23">
@@ -13989,10 +13989,10 @@
         <v>0.9388799667358398</v>
       </c>
       <c r="V191" t="n">
-        <v>0.5481818318367004</v>
+        <v>0.5339688062667847</v>
       </c>
       <c r="W191" t="n">
-        <v>0.1526450365781784</v>
+        <v>0.1639530509710312</v>
       </c>
     </row>
     <row r="192" spans="1:23">
@@ -14060,10 +14060,10 @@
         <v>0.8722100257873535</v>
       </c>
       <c r="V192" t="n">
-        <v>0.5035362839698792</v>
+        <v>0.5059452056884766</v>
       </c>
       <c r="W192" t="n">
-        <v>0.1359203308820724</v>
+        <v>0.1341499239206314</v>
       </c>
     </row>
     <row r="193" spans="1:23">
@@ -14131,10 +14131,10 @@
         <v>0.8767149448394775</v>
       </c>
       <c r="V193" t="n">
-        <v>0.7316849231719971</v>
+        <v>0.5123294591903687</v>
       </c>
       <c r="W193" t="n">
-        <v>0.02103370800614357</v>
+        <v>0.1327767819166183</v>
       </c>
     </row>
     <row r="194" spans="1:23">
@@ -14202,10 +14202,10 @@
         <v>0.8663032054901123</v>
       </c>
       <c r="V194" t="n">
-        <v>0.4660579562187195</v>
+        <v>0.48203444480896</v>
       </c>
       <c r="W194" t="n">
-        <v>0.1601962596178055</v>
+        <v>0.1476624757051468</v>
       </c>
     </row>
     <row r="195" spans="1:23">
@@ -14273,10 +14273,10 @@
         <v>0.9308040142059326</v>
       </c>
       <c r="V195" t="n">
-        <v>0.6210951805114746</v>
+        <v>0.4830061793327332</v>
       </c>
       <c r="W195" t="n">
-        <v>0.09591956436634064</v>
+        <v>0.2005228996276855</v>
       </c>
     </row>
     <row r="196" spans="1:23">
@@ -14344,10 +14344,10 @@
         <v>0.883652925491333</v>
       </c>
       <c r="V196" t="n">
-        <v>0.8231731653213501</v>
+        <v>0.9907051920890808</v>
       </c>
       <c r="W196" t="n">
-        <v>0.003657801309600472</v>
+        <v>0.01146018784493208</v>
       </c>
     </row>
     <row r="197" spans="1:23">
@@ -14415,10 +14415,10 @@
         <v>0.8913240432739258</v>
       </c>
       <c r="V197" t="n">
-        <v>0.6190664768218994</v>
+        <v>0.9457187056541443</v>
       </c>
       <c r="W197" t="n">
-        <v>0.07412417978048325</v>
+        <v>0.002958779223263264</v>
       </c>
     </row>
     <row r="198" spans="1:23">
@@ -14486,10 +14486,10 @@
         <v>1.003369808197021</v>
       </c>
       <c r="V198" t="n">
-        <v>0.5087136030197144</v>
+        <v>0.5336415767669678</v>
       </c>
       <c r="W198" t="n">
-        <v>0.2446847558021545</v>
+        <v>0.2206446081399918</v>
       </c>
     </row>
     <row r="199" spans="1:23">
@@ -14557,10 +14557,10 @@
         <v>0.8833379745483398</v>
       </c>
       <c r="V199" t="n">
-        <v>0.56818687915802</v>
+        <v>0.5142261385917664</v>
       </c>
       <c r="W199" t="n">
-        <v>0.09932021051645279</v>
+        <v>0.1362435519695282</v>
       </c>
     </row>
     <row r="200" spans="1:23">
@@ -14628,10 +14628,10 @@
         <v>0.8711180686950684</v>
       </c>
       <c r="V200" t="n">
-        <v>0.6213923692703247</v>
+        <v>0.9239727854728699</v>
       </c>
       <c r="W200" t="n">
-        <v>0.0623629242181778</v>
+        <v>0.002793621039018035</v>
       </c>
     </row>
     <row r="201" spans="1:23">
@@ -14699,10 +14699,10 @@
         <v>0.9243350028991699</v>
       </c>
       <c r="V201" t="n">
-        <v>0.5526103377342224</v>
+        <v>0.4771623611450195</v>
       </c>
       <c r="W201" t="n">
-        <v>0.1381792277097702</v>
+        <v>0.1999633759260178</v>
       </c>
     </row>
     <row r="202" spans="1:23">
@@ -14770,10 +14770,10 @@
         <v>0.5236968994140625</v>
       </c>
       <c r="V202" t="n">
-        <v>0.4422197341918945</v>
+        <v>0.4784731268882751</v>
       </c>
       <c r="W202" t="n">
-        <v>0.006638528313487768</v>
+        <v>0.002045189496129751</v>
       </c>
     </row>
     <row r="203" spans="1:23">
@@ -14841,10 +14841,10 @@
         <v>0.5743749141693115</v>
       </c>
       <c r="V203" t="n">
-        <v>0.5042864084243774</v>
+        <v>0.5240259766578674</v>
       </c>
       <c r="W203" t="n">
-        <v>0.004912398755550385</v>
+        <v>0.002535015577450395</v>
       </c>
     </row>
     <row r="204" spans="1:23">
@@ -14912,10 +14912,10 @@
         <v>0.5474390983581543</v>
       </c>
       <c r="V204" t="n">
-        <v>0.6256434917449951</v>
+        <v>0.4832118153572083</v>
       </c>
       <c r="W204" t="n">
-        <v>0.0061159273609519</v>
+        <v>0.004125143866986036</v>
       </c>
     </row>
     <row r="205" spans="1:23">
@@ -14983,10 +14983,10 @@
         <v>0.5211119651794434</v>
       </c>
       <c r="V205" t="n">
-        <v>0.6252998113632202</v>
+        <v>0.8645461201667786</v>
       </c>
       <c r="W205" t="n">
-        <v>0.0108551075682044</v>
+        <v>0.117947019636631</v>
       </c>
     </row>
     <row r="206" spans="1:23">
@@ -15054,10 +15054,10 @@
         <v>0.521172046661377</v>
       </c>
       <c r="V206" t="n">
-        <v>0.4576262831687927</v>
+        <v>0.4819329977035522</v>
       </c>
       <c r="W206" t="n">
-        <v>0.004038064274936914</v>
+        <v>0.001539702992886305</v>
       </c>
     </row>
     <row r="207" spans="1:23">
@@ -15125,10 +15125,10 @@
         <v>0.5233850479125977</v>
       </c>
       <c r="V207" t="n">
-        <v>0.473930835723877</v>
+        <v>0.482751727104187</v>
       </c>
       <c r="W207" t="n">
-        <v>0.002445719204843044</v>
+        <v>0.001651066704653203</v>
       </c>
     </row>
     <row r="208" spans="1:23">
@@ -15196,10 +15196,10 @@
         <v>0.5730509757995605</v>
       </c>
       <c r="V208" t="n">
-        <v>0.4356054365634918</v>
+        <v>0.4713378548622131</v>
       </c>
       <c r="W208" t="n">
-        <v>0.01889127679169178</v>
+        <v>0.01034555863589048</v>
       </c>
     </row>
     <row r="209" spans="1:23">
@@ -15267,10 +15267,10 @@
         <v>0.5203030109405518</v>
       </c>
       <c r="V209" t="n">
-        <v>0.6190383434295654</v>
+        <v>0.4845108389854431</v>
       </c>
       <c r="W209" t="n">
-        <v>0.009748665615916252</v>
+        <v>0.001281079603359103</v>
       </c>
     </row>
     <row r="210" spans="1:23">
@@ -15338,10 +15338,10 @@
         <v>0.5211770534515381</v>
       </c>
       <c r="V210" t="n">
-        <v>0.551807165145874</v>
+        <v>0.5336543321609497</v>
       </c>
       <c r="W210" t="n">
-        <v>0.0009382037678733468</v>
+        <v>0.0001556824863655493</v>
       </c>
     </row>
     <row r="211" spans="1:23">
@@ -15409,10 +15409,10 @@
         <v>0.5285830497741699</v>
       </c>
       <c r="V211" t="n">
-        <v>0.4356208145618439</v>
+        <v>0.923625111579895</v>
       </c>
       <c r="W211" t="n">
-        <v>0.008641976863145828</v>
+        <v>0.1560582369565964</v>
       </c>
     </row>
     <row r="212" spans="1:23">
@@ -15480,10 +15480,10 @@
         <v>0.525137186050415</v>
       </c>
       <c r="V212" t="n">
-        <v>0.8121641874313354</v>
+        <v>0.9193379282951355</v>
       </c>
       <c r="W212" t="n">
-        <v>0.08238449692726135</v>
+        <v>0.1553942263126373</v>
       </c>
     </row>
     <row r="213" spans="1:23">
@@ -15551,10 +15551,10 @@
         <v>0.5246059894561768</v>
       </c>
       <c r="V213" t="n">
-        <v>0.436014860868454</v>
+        <v>0.8649021983146667</v>
       </c>
       <c r="W213" t="n">
-        <v>0.007848388515412807</v>
+        <v>0.1158015131950378</v>
       </c>
     </row>
     <row r="214" spans="1:23">
@@ -15622,10 +15622,10 @@
         <v>0.5465149879455566</v>
       </c>
       <c r="V214" t="n">
-        <v>0.4538178741931915</v>
+        <v>0.5123846530914307</v>
       </c>
       <c r="W214" t="n">
-        <v>0.008592754602432251</v>
+        <v>0.00116487976629287</v>
       </c>
     </row>
     <row r="215" spans="1:23">
@@ -15693,10 +15693,10 @@
         <v>0.5257470607757568</v>
       </c>
       <c r="V215" t="n">
-        <v>0.4203605949878693</v>
+        <v>0.4692720174789429</v>
       </c>
       <c r="W215" t="n">
-        <v>0.01110630761831999</v>
+        <v>0.003189430572092533</v>
       </c>
     </row>
     <row r="216" spans="1:23">
@@ -15764,10 +15764,10 @@
         <v>0.5318009853363037</v>
       </c>
       <c r="V216" t="n">
-        <v>0.6241397857666016</v>
+        <v>0.8633677363395691</v>
       </c>
       <c r="W216" t="n">
-        <v>0.008526453748345375</v>
+        <v>0.1099365130066872</v>
       </c>
     </row>
     <row r="217" spans="1:23">
@@ -15835,10 +15835,10 @@
         <v>0.5218098163604736</v>
       </c>
       <c r="V217" t="n">
-        <v>0.5043182373046875</v>
+        <v>0.4943298101425171</v>
       </c>
       <c r="W217" t="n">
-        <v>0.0003059553273487836</v>
+        <v>0.0007551507442258298</v>
       </c>
     </row>
     <row r="218" spans="1:23">
@@ -15906,10 +15906,10 @@
         <v>0.5193781852722168</v>
       </c>
       <c r="V218" t="n">
-        <v>0.5686811208724976</v>
+        <v>0.4771819114685059</v>
       </c>
       <c r="W218" t="n">
-        <v>0.00243077939376235</v>
+        <v>0.001780525548383594</v>
       </c>
     </row>
     <row r="219" spans="1:23">
@@ -15977,10 +15977,10 @@
         <v>0.5870599746704102</v>
       </c>
       <c r="V219" t="n">
-        <v>0.816550612449646</v>
+        <v>0.9565975069999695</v>
       </c>
       <c r="W219" t="n">
-        <v>0.05266595259308815</v>
+        <v>0.1365579813718796</v>
       </c>
     </row>
     <row r="220" spans="1:23">
@@ -16048,10 +16048,10 @@
         <v>0.5251181125640869</v>
       </c>
       <c r="V220" t="n">
-        <v>0.4757482409477234</v>
+        <v>0.4726352691650391</v>
       </c>
       <c r="W220" t="n">
-        <v>0.002437384333461523</v>
+        <v>0.002754448913037777</v>
       </c>
     </row>
     <row r="221" spans="1:23">
@@ -16119,10 +16119,10 @@
         <v>0.5251779556274414</v>
       </c>
       <c r="V221" t="n">
-        <v>0.6210076808929443</v>
+        <v>0.9290480613708496</v>
       </c>
       <c r="W221" t="n">
-        <v>0.009183336049318314</v>
+        <v>0.1631110608577728</v>
       </c>
     </row>
     <row r="222" spans="1:23">
@@ -16190,10 +16190,10 @@
         <v>0.3907299041748047</v>
       </c>
       <c r="V222" t="n">
-        <v>0.7368419170379639</v>
+        <v>0.8676208257675171</v>
       </c>
       <c r="W222" t="n">
-        <v>0.119793526828289</v>
+        <v>0.2274249494075775</v>
       </c>
     </row>
     <row r="223" spans="1:23">
@@ -16261,10 +16261,10 @@
         <v>0.3944621086120605</v>
       </c>
       <c r="V223" t="n">
-        <v>0.5036900043487549</v>
+        <v>0.8690442442893982</v>
       </c>
       <c r="W223" t="n">
-        <v>0.0119307329878211</v>
+        <v>0.2252282053232193</v>
       </c>
     </row>
     <row r="224" spans="1:23">
@@ -16332,10 +16332,10 @@
         <v>0.3939080238342285</v>
       </c>
       <c r="V224" t="n">
-        <v>0.4749151468276978</v>
+        <v>0.5171329379081726</v>
       </c>
       <c r="W224" t="n">
-        <v>0.006562153808772564</v>
+        <v>0.01518437918275595</v>
       </c>
     </row>
     <row r="225" spans="1:23">
@@ -16403,10 +16403,10 @@
         <v>0.3995401859283447</v>
       </c>
       <c r="V225" t="n">
-        <v>0.4588357210159302</v>
+        <v>0.8840299844741821</v>
       </c>
       <c r="W225" t="n">
-        <v>0.003515960415825248</v>
+        <v>0.2347303628921509</v>
       </c>
     </row>
     <row r="226" spans="1:23">
@@ -16474,10 +16474,10 @@
         <v>0.3947958946228027</v>
       </c>
       <c r="V226" t="n">
-        <v>0.4357521533966064</v>
+        <v>0.48907071352005</v>
       </c>
       <c r="W226" t="n">
-        <v>0.001677415100857615</v>
+        <v>0.008887741714715958</v>
       </c>
     </row>
     <row r="227" spans="1:23">
@@ -16545,10 +16545,10 @@
         <v>0.3962509632110596</v>
       </c>
       <c r="V227" t="n">
-        <v>0.5758230686187744</v>
+        <v>0.8933148980140686</v>
       </c>
       <c r="W227" t="n">
-        <v>0.03224614262580872</v>
+        <v>0.2470725625753403</v>
       </c>
     </row>
     <row r="228" spans="1:23">
@@ -16616,10 +16616,10 @@
         <v>0.3982570171356201</v>
       </c>
       <c r="V228" t="n">
-        <v>0.6602040529251099</v>
+        <v>0.9818395972251892</v>
       </c>
       <c r="W228" t="n">
-        <v>0.06861624866724014</v>
+        <v>0.3405686318874359</v>
       </c>
     </row>
     <row r="229" spans="1:23">
@@ -16687,10 +16687,10 @@
         <v>0.407926082611084</v>
       </c>
       <c r="V229" t="n">
-        <v>0.4660023748874664</v>
+        <v>0.8674657940864563</v>
       </c>
       <c r="W229" t="n">
-        <v>0.00337285571731627</v>
+        <v>0.2111767530441284</v>
       </c>
     </row>
     <row r="230" spans="1:23">
@@ -16758,10 +16758,10 @@
         <v>0.3979439735412598</v>
       </c>
       <c r="V230" t="n">
-        <v>0.43533855676651</v>
+        <v>0.4772036671638489</v>
       </c>
       <c r="W230" t="n">
-        <v>0.001398354885168374</v>
+        <v>0.006282099056988955</v>
       </c>
     </row>
     <row r="231" spans="1:23">
@@ -16829,10 +16829,10 @@
         <v>0.3971788883209229</v>
       </c>
       <c r="V231" t="n">
-        <v>0.4361319839954376</v>
+        <v>0.4946876168251038</v>
       </c>
       <c r="W231" t="n">
-        <v>0.001517343684099615</v>
+        <v>0.009507952257990837</v>
       </c>
     </row>
     <row r="232" spans="1:23">
@@ -16900,10 +16900,10 @@
         <v>0.3999969959259033</v>
       </c>
       <c r="V232" t="n">
-        <v>0.5687597990036011</v>
+        <v>0.8682689666748047</v>
       </c>
       <c r="W232" t="n">
-        <v>0.0284808836877346</v>
+        <v>0.2192786335945129</v>
       </c>
     </row>
     <row r="233" spans="1:23">
@@ -16971,10 +16971,10 @@
         <v>0.396759033203125</v>
       </c>
       <c r="V233" t="n">
-        <v>0.5529001951217651</v>
+        <v>0.4887850284576416</v>
       </c>
       <c r="W233" t="n">
-        <v>0.02438006177544594</v>
+        <v>0.008468783460557461</v>
       </c>
     </row>
     <row r="234" spans="1:23">
@@ -17042,10 +17042,10 @@
         <v>0.3967180252075195</v>
       </c>
       <c r="V234" t="n">
-        <v>0.6212022304534912</v>
+        <v>0.4831990599632263</v>
       </c>
       <c r="W234" t="n">
-        <v>0.05039315670728683</v>
+        <v>0.007478969171643257</v>
       </c>
     </row>
     <row r="235" spans="1:23">
@@ -17113,10 +17113,10 @@
         <v>0.4009778499603271</v>
       </c>
       <c r="V235" t="n">
-        <v>0.4360113441944122</v>
+        <v>0.4691954255104065</v>
       </c>
       <c r="W235" t="n">
-        <v>0.001227345666848123</v>
+        <v>0.004653637763112783</v>
       </c>
     </row>
     <row r="236" spans="1:23">
@@ -17184,10 +17184,10 @@
         <v>0.3965721130371094</v>
       </c>
       <c r="V236" t="n">
-        <v>0.6435973644256592</v>
+        <v>0.9253632426261902</v>
       </c>
       <c r="W236" t="n">
-        <v>0.06102147325873375</v>
+        <v>0.2796200513839722</v>
       </c>
     </row>
     <row r="237" spans="1:23">
@@ -17255,10 +17255,10 @@
         <v>0.3978939056396484</v>
       </c>
       <c r="V237" t="n">
-        <v>0.5531672239303589</v>
+        <v>0.9512060284614563</v>
       </c>
       <c r="W237" t="n">
-        <v>0.02410980314016342</v>
+        <v>0.3061543107032776</v>
       </c>
     </row>
     <row r="238" spans="1:23">
@@ -17326,10 +17326,10 @@
         <v>0.3946290016174316</v>
       </c>
       <c r="V238" t="n">
-        <v>0.4765401184558868</v>
+        <v>0.4748188853263855</v>
       </c>
       <c r="W238" t="n">
-        <v>0.006709430832415819</v>
+        <v>0.00643041729927063</v>
       </c>
     </row>
     <row r="239" spans="1:23">
@@ -17397,10 +17397,10 @@
         <v>0.4182898998260498</v>
       </c>
       <c r="V239" t="n">
-        <v>0.5520607233047485</v>
+        <v>0.4822666645050049</v>
       </c>
       <c r="W239" t="n">
-        <v>0.01789463311433792</v>
+        <v>0.004093026276677847</v>
       </c>
     </row>
     <row r="240" spans="1:23">
@@ -17468,10 +17468,10 @@
         <v>0.4336950778961182</v>
       </c>
       <c r="V240" t="n">
-        <v>0.4586285054683685</v>
+        <v>0.4849228858947754</v>
       </c>
       <c r="W240" t="n">
-        <v>0.0006216758047230542</v>
+        <v>0.002624288201332092</v>
       </c>
     </row>
     <row r="241" spans="1:23">
@@ -17539,10 +17539,10 @@
         <v>0.398798942565918</v>
       </c>
       <c r="V241" t="n">
-        <v>0.6257683038711548</v>
+        <v>0.4678562879562378</v>
       </c>
       <c r="W241" t="n">
-        <v>0.05151509121060371</v>
+        <v>0.004768916871398687</v>
       </c>
     </row>
     <row r="242" spans="1:23">
@@ -17610,10 +17610,10 @@
         <v>0.9465889930725098</v>
       </c>
       <c r="V242" t="n">
-        <v>0.6566433906555176</v>
+        <v>0.4693422317504883</v>
       </c>
       <c r="W242" t="n">
-        <v>0.08406845480203629</v>
+        <v>0.2277644723653793</v>
       </c>
     </row>
     <row r="243" spans="1:23">
@@ -17681,10 +17681,10 @@
         <v>0.883519172668457</v>
       </c>
       <c r="V243" t="n">
-        <v>0.5714279413223267</v>
+        <v>0.477357029914856</v>
       </c>
       <c r="W243" t="n">
-        <v>0.09740093350410461</v>
+        <v>0.1649676859378815</v>
       </c>
     </row>
     <row r="244" spans="1:23">
@@ -17752,10 +17752,10 @@
         <v>0.8847579956054688</v>
       </c>
       <c r="V244" t="n">
-        <v>0.4707935154438019</v>
+        <v>0.9184883236885071</v>
       </c>
       <c r="W244" t="n">
-        <v>0.1713665872812271</v>
+        <v>0.001137735089287162</v>
       </c>
     </row>
     <row r="245" spans="1:23">
@@ -17823,10 +17823,10 @@
         <v>0.8791909217834473</v>
       </c>
       <c r="V245" t="n">
-        <v>0.6847788095474243</v>
+        <v>0.8978220820426941</v>
       </c>
       <c r="W245" t="n">
-        <v>0.03779606893658638</v>
+        <v>0.0003471201343927532</v>
       </c>
     </row>
     <row r="246" spans="1:23">
@@ -17894,10 +17894,10 @@
         <v>0.9394750595092773</v>
       </c>
       <c r="V246" t="n">
-        <v>0.8119727373123169</v>
+        <v>0.9031477570533752</v>
       </c>
       <c r="W246" t="n">
-        <v>0.01625684276223183</v>
+        <v>0.001319672912359238</v>
       </c>
     </row>
     <row r="247" spans="1:23">
@@ -17965,10 +17965,10 @@
         <v>0.8899149894714355</v>
       </c>
       <c r="V247" t="n">
-        <v>0.8164882659912109</v>
+        <v>0.4772440195083618</v>
       </c>
       <c r="W247" t="n">
-        <v>0.005391483660787344</v>
+        <v>0.1702973246574402</v>
       </c>
     </row>
     <row r="248" spans="1:23">
@@ -18036,10 +18036,10 @@
         <v>0.8772459030151367</v>
       </c>
       <c r="V248" t="n">
-        <v>0.4360273480415344</v>
+        <v>0.5328087210655212</v>
       </c>
       <c r="W248" t="n">
-        <v>0.1946738064289093</v>
+        <v>0.1186369732022285</v>
       </c>
     </row>
     <row r="249" spans="1:23">
@@ -18107,10 +18107,10 @@
         <v>0.8970189094543457</v>
       </c>
       <c r="V249" t="n">
-        <v>0.6437066793441772</v>
+        <v>0.4768404960632324</v>
       </c>
       <c r="W249" t="n">
-        <v>0.0641670823097229</v>
+        <v>0.1765498965978622</v>
       </c>
     </row>
     <row r="250" spans="1:23">
@@ -18178,10 +18178,10 @@
         <v>0.9348878860473633</v>
       </c>
       <c r="V250" t="n">
-        <v>0.8163976669311523</v>
+        <v>0.5312054753303528</v>
       </c>
       <c r="W250" t="n">
-        <v>0.01403993181884289</v>
+        <v>0.162959486246109</v>
       </c>
     </row>
     <row r="251" spans="1:23">
@@ -18249,10 +18249,10 @@
         <v>0.9329957962036133</v>
       </c>
       <c r="V251" t="n">
-        <v>0.4759599268436432</v>
+        <v>0.5315669775009155</v>
       </c>
       <c r="W251" t="n">
-        <v>0.2088817805051804</v>
+        <v>0.1611450910568237</v>
       </c>
     </row>
     <row r="252" spans="1:23">
@@ -18320,10 +18320,10 @@
         <v>0.9053869247436523</v>
       </c>
       <c r="V252" t="n">
-        <v>0.6278610229492188</v>
+        <v>0.9487661123275757</v>
       </c>
       <c r="W252" t="n">
-        <v>0.07702062278985977</v>
+        <v>0.001881753909401596</v>
       </c>
     </row>
     <row r="253" spans="1:23">
@@ -18391,10 +18391,10 @@
         <v>0.9161319732666016</v>
       </c>
       <c r="V253" t="n">
-        <v>0.5535465478897095</v>
+        <v>0.513069212436676</v>
       </c>
       <c r="W253" t="n">
-        <v>0.131468191742897</v>
+        <v>0.1624595820903778</v>
       </c>
     </row>
     <row r="254" spans="1:23">
@@ -18462,10 +18462,10 @@
         <v>1.027273178100586</v>
       </c>
       <c r="V254" t="n">
-        <v>0.7251691818237305</v>
+        <v>0.4821586012840271</v>
       </c>
       <c r="W254" t="n">
-        <v>0.09126682579517365</v>
+        <v>0.2971498966217041</v>
       </c>
     </row>
     <row r="255" spans="1:23">
@@ -18533,10 +18533,10 @@
         <v>0.8848731517791748</v>
       </c>
       <c r="V255" t="n">
-        <v>0.436027318239212</v>
+        <v>0.8769825100898743</v>
       </c>
       <c r="W255" t="n">
-        <v>0.2014625817537308</v>
+        <v>6.226222467375919e-05</v>
       </c>
     </row>
     <row r="256" spans="1:23">
@@ -18604,10 +18604,10 @@
         <v>0.8763890266418457</v>
       </c>
       <c r="V256" t="n">
-        <v>0.6243749856948853</v>
+        <v>0.925474226474762</v>
       </c>
       <c r="W256" t="n">
-        <v>0.06351107358932495</v>
+        <v>0.002409356879070401</v>
       </c>
     </row>
     <row r="257" spans="1:23">
@@ -18675,10 +18675,10 @@
         <v>0.8796389102935791</v>
       </c>
       <c r="V257" t="n">
-        <v>0.473088413476944</v>
+        <v>0.4715010523796082</v>
       </c>
       <c r="W257" t="n">
-        <v>0.1652833074331284</v>
+        <v>0.1665765047073364</v>
       </c>
     </row>
     <row r="258" spans="1:23">
@@ -18746,10 +18746,10 @@
         <v>0.8796989917755127</v>
       </c>
       <c r="V258" t="n">
-        <v>0.551414966583252</v>
+        <v>0.883470356464386</v>
       </c>
       <c r="W258" t="n">
-        <v>0.1077703982591629</v>
+        <v>1.422319201083155e-05</v>
       </c>
     </row>
     <row r="259" spans="1:23">
@@ -18817,10 +18817,10 @@
         <v>0.8823080062866211</v>
       </c>
       <c r="V259" t="n">
-        <v>0.390147477388382</v>
+        <v>0.9318918585777283</v>
       </c>
       <c r="W259" t="n">
-        <v>0.2422219812870026</v>
+        <v>0.002458558417856693</v>
       </c>
     </row>
     <row r="260" spans="1:23">
@@ -18888,10 +18888,10 @@
         <v>0.8731160163879395</v>
       </c>
       <c r="V260" t="n">
-        <v>0.4542677104473114</v>
+        <v>0.9917673468589783</v>
       </c>
       <c r="W260" t="n">
-        <v>0.1754339039325714</v>
+        <v>0.01407813839614391</v>
       </c>
     </row>
     <row r="261" spans="1:23">
@@ -18959,10 +18959,10 @@
         <v>0.8817441463470459</v>
       </c>
       <c r="V261" t="n">
-        <v>0.8160817623138428</v>
+        <v>0.5339211225509644</v>
       </c>
       <c r="W261" t="n">
-        <v>0.004311548545956612</v>
+        <v>0.1209808588027954</v>
       </c>
     </row>
     <row r="262" spans="1:23">
@@ -19030,10 +19030,10 @@
         <v>0.5441410541534424</v>
       </c>
       <c r="V262" t="n">
-        <v>0.504918098449707</v>
+        <v>0.9093422293663025</v>
       </c>
       <c r="W262" t="n">
-        <v>0.001538440235890448</v>
+        <v>0.1333719044923782</v>
       </c>
     </row>
     <row r="263" spans="1:23">
@@ -19101,10 +19101,10 @@
         <v>0.5430498123168945</v>
       </c>
       <c r="V263" t="n">
-        <v>0.5517981052398682</v>
+        <v>0.5517597198486328</v>
       </c>
       <c r="W263" t="n">
-        <v>7.653262582607567e-05</v>
+        <v>7.586248830193654e-05</v>
       </c>
     </row>
     <row r="264" spans="1:23">
@@ -19172,10 +19172,10 @@
         <v>0.5265190601348877</v>
       </c>
       <c r="V264" t="n">
-        <v>0.551541268825531</v>
+        <v>0.9083365797996521</v>
       </c>
       <c r="W264" t="n">
-        <v>0.0006261109374463558</v>
+        <v>0.1457846164703369</v>
       </c>
     </row>
     <row r="265" spans="1:23">
@@ -19243,10 +19243,10 @@
         <v>0.530832052230835</v>
       </c>
       <c r="V265" t="n">
-        <v>0.7464801073074341</v>
+        <v>0.4784641265869141</v>
       </c>
       <c r="W265" t="n">
-        <v>0.04650408402085304</v>
+        <v>0.002742399694398046</v>
       </c>
     </row>
     <row r="266" spans="1:23">
@@ -19314,10 +19314,10 @@
         <v>0.5277059078216553</v>
       </c>
       <c r="V266" t="n">
-        <v>0.4360217452049255</v>
+        <v>0.4941896200180054</v>
       </c>
       <c r="W266" t="n">
-        <v>0.008405985310673714</v>
+        <v>0.00112334149889648</v>
       </c>
     </row>
     <row r="267" spans="1:23">
@@ -19385,10 +19385,10 @@
         <v>0.580672025680542</v>
       </c>
       <c r="V267" t="n">
-        <v>0.8119169473648071</v>
+        <v>0.4823179841041565</v>
       </c>
       <c r="W267" t="n">
-        <v>0.05347421392798424</v>
+        <v>0.009673517197370529</v>
       </c>
     </row>
     <row r="268" spans="1:23">
@@ -19456,10 +19456,10 @@
         <v>0.5297980308532715</v>
       </c>
       <c r="V268" t="n">
-        <v>0.475897878408432</v>
+        <v>0.4735029935836792</v>
       </c>
       <c r="W268" t="n">
-        <v>0.002905226545408368</v>
+        <v>0.00316913123242557</v>
       </c>
     </row>
     <row r="269" spans="1:23">
@@ -19527,10 +19527,10 @@
         <v>0.5297999382019043</v>
       </c>
       <c r="V269" t="n">
-        <v>0.5615204572677612</v>
+        <v>0.4815938472747803</v>
       </c>
       <c r="W269" t="n">
-        <v>0.001006191363558173</v>
+        <v>0.002323827240616083</v>
       </c>
     </row>
     <row r="270" spans="1:23">
@@ -19598,10 +19598,10 @@
         <v>0.5274658203125</v>
       </c>
       <c r="V270" t="n">
-        <v>0.4360241889953613</v>
+        <v>0.9309948086738586</v>
       </c>
       <c r="W270" t="n">
-        <v>0.008361572399735451</v>
+        <v>0.1628356426954269</v>
       </c>
     </row>
     <row r="271" spans="1:23">
@@ -19669,10 +19669,10 @@
         <v>0.5341780185699463</v>
       </c>
       <c r="V271" t="n">
-        <v>0.569115161895752</v>
+        <v>0.4676127433776855</v>
       </c>
       <c r="W271" t="n">
-        <v>0.001220603939145803</v>
+        <v>0.004430935718119144</v>
       </c>
     </row>
     <row r="272" spans="1:23">
@@ -19740,10 +19740,10 @@
         <v>0.6117849349975586</v>
       </c>
       <c r="V272" t="n">
-        <v>0.4360229969024658</v>
+        <v>0.5221537351608276</v>
       </c>
       <c r="W272" t="n">
-        <v>0.03089225850999355</v>
+        <v>0.00803375244140625</v>
       </c>
     </row>
     <row r="273" spans="1:23">
@@ -19811,10 +19811,10 @@
         <v>0.5235409736633301</v>
       </c>
       <c r="V273" t="n">
-        <v>0.4585598111152649</v>
+        <v>0.5040205717086792</v>
       </c>
       <c r="W273" t="n">
-        <v>0.004222551360726357</v>
+        <v>0.0003810460912063718</v>
       </c>
     </row>
     <row r="274" spans="1:23">
@@ -19882,10 +19882,10 @@
         <v>0.5503199100494385</v>
       </c>
       <c r="V274" t="n">
-        <v>0.4360882639884949</v>
+        <v>0.4685666561126709</v>
       </c>
       <c r="W274" t="n">
-        <v>0.01304886862635612</v>
+        <v>0.006683594547212124</v>
       </c>
     </row>
     <row r="275" spans="1:23">
@@ -19953,10 +19953,10 @@
         <v>0.5267140865325928</v>
       </c>
       <c r="V275" t="n">
-        <v>0.7337663173675537</v>
+        <v>0.5312997698783875</v>
       </c>
       <c r="W275" t="n">
-        <v>0.04287062585353851</v>
+        <v>2.10284924833104e-05</v>
       </c>
     </row>
     <row r="276" spans="1:23">
@@ -20024,10 +20024,10 @@
         <v>0.5267341136932373</v>
       </c>
       <c r="V276" t="n">
-        <v>0.6469850540161133</v>
+        <v>0.9672226309776306</v>
       </c>
       <c r="W276" t="n">
-        <v>0.01446028891950846</v>
+        <v>0.1940301358699799</v>
       </c>
     </row>
     <row r="277" spans="1:23">
@@ -20095,10 +20095,10 @@
         <v>0.5272860527038574</v>
       </c>
       <c r="V277" t="n">
-        <v>0.6570440530776978</v>
+        <v>0.5337179899215698</v>
       </c>
       <c r="W277" t="n">
-        <v>0.01683713868260384</v>
+        <v>4.136981806368567e-05</v>
       </c>
     </row>
     <row r="278" spans="1:23">
@@ -20166,10 +20166,10 @@
         <v>0.5288281440734863</v>
       </c>
       <c r="V278" t="n">
-        <v>0.6255437135696411</v>
+        <v>0.4990648031234741</v>
       </c>
       <c r="W278" t="n">
-        <v>0.009353901259601116</v>
+        <v>0.0008858564542606473</v>
       </c>
     </row>
     <row r="279" spans="1:23">
@@ -20237,10 +20237,10 @@
         <v>0.5314769744873047</v>
       </c>
       <c r="V279" t="n">
-        <v>0.5595355629920959</v>
+        <v>0.4753691554069519</v>
       </c>
       <c r="W279" t="n">
-        <v>0.0007872843998484313</v>
+        <v>0.003148087300360203</v>
       </c>
     </row>
     <row r="280" spans="1:23">
@@ -20308,10 +20308,10 @@
         <v>0.5244569778442383</v>
       </c>
       <c r="V280" t="n">
-        <v>0.4577381312847137</v>
+        <v>0.9055419564247131</v>
       </c>
       <c r="W280" t="n">
-        <v>0.004451404325664043</v>
+        <v>0.1452257633209229</v>
       </c>
     </row>
     <row r="281" spans="1:23">
@@ -20379,10 +20379,10 @@
         <v>0.5237269401550293</v>
       </c>
       <c r="V281" t="n">
-        <v>0.4356223046779633</v>
+        <v>0.9041417837142944</v>
       </c>
       <c r="W281" t="n">
-        <v>0.007762426976114511</v>
+        <v>0.1447154581546783</v>
       </c>
     </row>
     <row r="282" spans="1:23">
@@ -20450,10 +20450,10 @@
         <v>0.404116153717041</v>
       </c>
       <c r="V282" t="n">
-        <v>0.4577591419219971</v>
+        <v>0.49416583776474</v>
       </c>
       <c r="W282" t="n">
-        <v>0.002877570223063231</v>
+        <v>0.008108945563435555</v>
       </c>
     </row>
     <row r="283" spans="1:23">
@@ -20521,10 +20521,10 @@
         <v>0.4564518928527832</v>
       </c>
       <c r="V283" t="n">
-        <v>0.5533048510551453</v>
+        <v>0.9718855619430542</v>
       </c>
       <c r="W283" t="n">
-        <v>0.009380495175719261</v>
+        <v>0.2656718790531158</v>
       </c>
     </row>
     <row r="284" spans="1:23">
@@ -20592,10 +20592,10 @@
         <v>0.4035768508911133</v>
       </c>
       <c r="V284" t="n">
-        <v>0.6248958110809326</v>
+        <v>0.4746483564376831</v>
       </c>
       <c r="W284" t="n">
-        <v>0.04898208379745483</v>
+        <v>0.005051158834248781</v>
       </c>
     </row>
     <row r="285" spans="1:23">
@@ -20663,10 +20663,10 @@
         <v>0.4036400318145752</v>
       </c>
       <c r="V285" t="n">
-        <v>0.4761776030063629</v>
+        <v>0.9846450090408325</v>
       </c>
       <c r="W285" t="n">
-        <v>0.005261699203401804</v>
+        <v>0.3375667929649353</v>
       </c>
     </row>
     <row r="286" spans="1:23">
@@ -20734,10 +20734,10 @@
         <v>0.4009411334991455</v>
       </c>
       <c r="V286" t="n">
-        <v>0.474732518196106</v>
+        <v>0.5336961150169373</v>
       </c>
       <c r="W286" t="n">
-        <v>0.005445168353617191</v>
+        <v>0.01762388460338116</v>
       </c>
     </row>
     <row r="287" spans="1:23">
@@ -20805,10 +20805,10 @@
         <v>0.398486852645874</v>
       </c>
       <c r="V287" t="n">
-        <v>0.5067566633224487</v>
+        <v>0.477449893951416</v>
       </c>
       <c r="W287" t="n">
-        <v>0.01172235235571861</v>
+        <v>0.006235161796212196</v>
       </c>
     </row>
     <row r="288" spans="1:23">
@@ -20876,10 +20876,10 @@
         <v>0.4076180458068848</v>
       </c>
       <c r="V288" t="n">
-        <v>0.624285101890564</v>
+        <v>0.5337448120117188</v>
       </c>
       <c r="W288" t="n">
-        <v>0.04694461449980736</v>
+        <v>0.01590796187520027</v>
       </c>
     </row>
     <row r="289" spans="1:23">
@@ -20947,10 +20947,10 @@
         <v>0.4693329334259033</v>
       </c>
       <c r="V289" t="n">
-        <v>0.57613205909729</v>
+        <v>0.5706665515899658</v>
       </c>
       <c r="W289" t="n">
-        <v>0.01140605285763741</v>
+        <v>0.01026850193738937</v>
       </c>
     </row>
     <row r="290" spans="1:23">
@@ -21018,10 +21018,10 @@
         <v>0.3993799686431885</v>
       </c>
       <c r="V290" t="n">
-        <v>0.4661538004875183</v>
+        <v>0.4838674664497375</v>
       </c>
       <c r="W290" t="n">
-        <v>0.004458744544535875</v>
+        <v>0.007138137239962816</v>
       </c>
     </row>
     <row r="291" spans="1:23">
@@ -21089,10 +21089,10 @@
         <v>0.4037408828735352</v>
       </c>
       <c r="V291" t="n">
-        <v>0.4644940793514252</v>
+        <v>0.9532756209373474</v>
       </c>
       <c r="W291" t="n">
-        <v>0.003690950805321336</v>
+        <v>0.301988422870636</v>
       </c>
     </row>
     <row r="292" spans="1:23">
@@ -21160,10 +21160,10 @@
         <v>0.4057760238647461</v>
       </c>
       <c r="V292" t="n">
-        <v>0.5523611307144165</v>
+        <v>0.5179678201675415</v>
       </c>
       <c r="W292" t="n">
-        <v>0.02148719318211079</v>
+        <v>0.01258699875324965</v>
       </c>
     </row>
     <row r="293" spans="1:23">
@@ -21231,10 +21231,10 @@
         <v>0.4014339447021484</v>
       </c>
       <c r="V293" t="n">
-        <v>0.5521078109741211</v>
+        <v>0.9587466716766357</v>
       </c>
       <c r="W293" t="n">
-        <v>0.02270261384546757</v>
+        <v>0.3105974793434143</v>
       </c>
     </row>
     <row r="294" spans="1:23">
@@ -21302,10 +21302,10 @@
         <v>0.4052119255065918</v>
       </c>
       <c r="V294" t="n">
-        <v>0.6839810609817505</v>
+        <v>0.477420449256897</v>
       </c>
       <c r="W294" t="n">
-        <v>0.07771223038434982</v>
+        <v>0.005214070901274681</v>
       </c>
     </row>
     <row r="295" spans="1:23">
@@ -21373,10 +21373,10 @@
         <v>0.4506208896636963</v>
       </c>
       <c r="V295" t="n">
-        <v>0.4422093331813812</v>
+        <v>0.9388702511787415</v>
       </c>
       <c r="W295" t="n">
-        <v>7.075428584357724e-05</v>
+        <v>0.2383874356746674</v>
       </c>
     </row>
     <row r="296" spans="1:23">
@@ -21444,10 +21444,10 @@
         <v>0.400460958480835</v>
       </c>
       <c r="V296" t="n">
-        <v>0.5533381700515747</v>
+        <v>0.5337117314338684</v>
       </c>
       <c r="W296" t="n">
-        <v>0.02337144128978252</v>
+        <v>0.01775576919317245</v>
       </c>
     </row>
     <row r="297" spans="1:23">
@@ -21515,10 +21515,10 @@
         <v>0.4033129215240479</v>
       </c>
       <c r="V297" t="n">
-        <v>0.6195765733718872</v>
+        <v>0.95289546251297</v>
       </c>
       <c r="W297" t="n">
-        <v>0.04676996544003487</v>
+        <v>0.3020409643650055</v>
       </c>
     </row>
     <row r="298" spans="1:23">
@@ -21586,10 +21586,10 @@
         <v>0.3991761207580566</v>
       </c>
       <c r="V298" t="n">
-        <v>0.458252340555191</v>
+        <v>0.4665647745132446</v>
       </c>
       <c r="W298" t="n">
-        <v>0.003489999799057841</v>
+        <v>0.004541230853646994</v>
       </c>
     </row>
     <row r="299" spans="1:23">
@@ -21657,10 +21657,10 @@
         <v>0.4018728733062744</v>
       </c>
       <c r="V299" t="n">
-        <v>0.6570550203323364</v>
+        <v>0.4685114622116089</v>
       </c>
       <c r="W299" t="n">
-        <v>0.06511792540550232</v>
+        <v>0.004440701566636562</v>
       </c>
     </row>
     <row r="300" spans="1:23">
@@ -21728,10 +21728,10 @@
         <v>0.406486988067627</v>
       </c>
       <c r="V300" t="n">
-        <v>0.4584780037403107</v>
+        <v>0.9478744864463806</v>
       </c>
       <c r="W300" t="n">
-        <v>0.002703065751120448</v>
+        <v>0.2931004166603088</v>
       </c>
     </row>
     <row r="301" spans="1:23">
@@ -21799,10 +21799,10 @@
         <v>0.4470851421356201</v>
       </c>
       <c r="V301" t="n">
-        <v>0.6213033199310303</v>
+        <v>0.5371502041816711</v>
       </c>
       <c r="W301" t="n">
-        <v>0.03035197407007217</v>
+        <v>0.008111715316772461</v>
       </c>
     </row>
     <row r="302" spans="1:23">
